--- a/Redesign-Redirects.xlsx
+++ b/Redesign-Redirects.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampanda/Samshub/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD9627-B68B-A644-A881-33CEADCC84ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7BE8A-F5FA-314F-B250-76ADB85259C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12340" yWindow="3220" windowWidth="32260" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Homepage-1" sheetId="2" r:id="rId1"/>
-    <sheet name="Homepage-2" sheetId="3" r:id="rId2"/>
-    <sheet name="Homepage-3" sheetId="4" r:id="rId3"/>
-    <sheet name="Homepage-4" sheetId="5" r:id="rId4"/>
-    <sheet name="Homepage-5" sheetId="6" r:id="rId5"/>
-    <sheet name="Homepage-6" sheetId="7" r:id="rId6"/>
-    <sheet name="JNJ OUR COMPANYPRODUCT URL CLEA" sheetId="1" r:id="rId7"/>
+    <sheet name="Homepage-0" sheetId="8" r:id="rId1"/>
+    <sheet name="Homepage-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Homepage-2" sheetId="3" r:id="rId3"/>
+    <sheet name="Homepage-3" sheetId="4" r:id="rId4"/>
+    <sheet name="Homepage-4" sheetId="5" r:id="rId5"/>
+    <sheet name="Homepage-5" sheetId="6" r:id="rId6"/>
+    <sheet name="Homepage-6" sheetId="7" r:id="rId7"/>
+    <sheet name="JNJ OUR COMPANYPRODUCT URL CLEA" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="2442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7105" uniqueCount="2464">
   <si>
     <t xml:space="preserve">Name of article </t>
   </si>
@@ -7463,6 +7464,72 @@
   </si>
   <si>
     <t>https://www.jnj.com/2011/10/drive-safely-work-week-and-btw-behind-the-wheel</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/icm-research-premieres-the-importance-of-sleep-on-social-emotional-development</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/icm-research-premieres-the-importance-of-sleep-on-social-emotional-development</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/icm-research-premieres-sleep-in-young-children-around-the-world</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/icm-research-premieres-sleep-in-young-children-around-the-world</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-prevention-and-management-of-bleeding-after-birth</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-prevention-and-management-of-bleeding-after-birth</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-5</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-5</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-building-teams</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-building-teams</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-clinical-skills</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-clinical-skills</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-2</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-2</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-1</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-1</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/new-ideas/building-the-confidence-of-a-new-generation-of-midwives-on-the-front-lines-of-care</t>
+  </si>
+  <si>
+    <t>https://upgrade.qa4.jnj.psdops.com/our-company/building-the-confidence-of-a-new-generation-of-midwives-on-the-front-lines-of-care</t>
   </si>
 </sst>
 </file>
@@ -7812,10 +7879,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806BCDE-C70F-6D4A-BF69-E1B69B9EF7F2}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://upgrade.qa4.jnj.psdops.com/cour-company/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory" xr:uid="{7950B623-1E77-0D4C-A004-7CCB7B5C4BCE}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://upgrade.qa4.jnj.psdops.com/ccaring-and-giving/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory" xr:uid="{08D726AB-6481-D44C-A807-DDF8DFB682F7}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://upgrade.qa4.jnj.psdops.com/ccaring-and-giving/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge" xr:uid="{4BB29CBF-AD0C-8B4B-BBBC-AD9D003311BD}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{B613A96D-3233-B346-BEAD-16F77CBA0DBC}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{EA07F56D-2518-4D4C-8962-403A8046FC48}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{2EA9CC32-6148-2340-A8A2-0321626C8EEC}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{664564DB-3D44-104C-BC51-1EB9420897A0}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{8248E9F5-5511-1E46-B329-597480741C87}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{02134FB0-DFF2-F34A-B844-7F53E0C3D700}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{15725C8C-6E51-FD40-A6A6-5BE8A0F66CF7}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{253B5697-B5C4-E64A-8DAE-64F75F7BAF22}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{1D6C8FBB-4A55-DA4B-B835-567DC293283B}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{2942D65C-F154-5844-8521-CC9713D004EA}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{42A8D5A2-FBEE-B640-A25F-1DE49FE5CB30}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{7E878D56-BEE6-A54A-96B5-A8563AE4A156}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{286AF3FD-1B34-0341-854E-25BFDD20014F}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{6876B8D8-4AA9-954F-82F5-3A96EB19DC94}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{16A4CB0D-44ED-B748-BDE2-9EDB27BA9D01}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{C283C5B5-43CB-2846-8141-9FE9926AA091}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{B5E6B9D0-3798-F644-A092-CBC5DB3EDB4A}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{539BBEAF-D26B-B24F-9230-FF7391ABBBBE}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{C2CC9794-2F6B-1941-9446-588CE12C6EDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62447A-6D9F-DD47-A3BC-B618ADF8CB98}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+    <sheetView topLeftCell="A252" workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
@@ -9631,12 +9847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CFE30-8DC9-8646-B751-1CC2599DD0A8}">
   <dimension ref="A1:A300"/>
   <sheetViews>
     <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="L306" sqref="L306"/>
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11447,7 +11663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63C1F6-382A-F642-87F9-93CF1775AA78}">
   <dimension ref="A1:A300"/>
   <sheetViews>
@@ -13264,7 +13480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0729FA2-658E-714E-BD63-184CECA54729}">
   <dimension ref="A1:A300"/>
   <sheetViews>
@@ -15081,7 +15297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F5E08C-0CC4-DF40-8568-D02DC4F72694}">
   <dimension ref="A1:A300"/>
   <sheetViews>
@@ -16898,7 +17114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ABC0E-71DA-C24A-A601-CE49653F1796}">
   <dimension ref="A1:A270"/>
   <sheetViews>
@@ -18535,7 +18751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Redesign-Redirects.xlsx
+++ b/Redesign-Redirects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampanda/Samshub/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7BE8A-F5FA-314F-B250-76ADB85259C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F947668C-3BFA-DE42-B5E7-71218F60143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="3220" windowWidth="32260" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="3220" windowWidth="32260" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage-0" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7105" uniqueCount="2464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="2466">
   <si>
     <t xml:space="preserve">Name of article </t>
   </si>
@@ -7530,6 +7530,12 @@
   </si>
   <si>
     <t>https://upgrade.qa4.jnj.psdops.com/our-company/building-the-confidence-of-a-new-generation-of-midwives-on-the-front-lines-of-care</t>
+  </si>
+  <si>
+    <t>https://www.jnj.com/caring-and-giving/midwives-lead-in-building-teams</t>
+  </si>
+  <si>
+    <t>https://www.jnj.com/we-are-america-a-new-ad-council-campaign-celebrates-our-countrys-great-Diversity &amp; Inclusion/</t>
   </si>
 </sst>
 </file>
@@ -7882,7 +7888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806BCDE-C70F-6D4A-BF69-E1B69B9EF7F2}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -8031,8 +8037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62447A-6D9F-DD47-A3BC-B618ADF8CB98}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8041,1807 +8047,1804 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
+      <c r="A13" s="9" t="s">
+        <v>2464</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="9" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="9" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="9" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="9" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="9" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="9" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="9" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
-        <v>317</v>
+      <c r="A184" s="9" t="s">
+        <v>2465</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="9" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="9" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="9" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="9" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="9" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="9" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="9" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="9" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="9" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="9" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="9" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="9" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="9" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="9" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="9" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
-        <v>386</v>
+      <c r="A234" s="9" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
-        <v>387</v>
+      <c r="A235" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" s="4" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" s="4" t="s">
-        <v>390</v>
+      <c r="A239" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" s="4" t="s">
-        <v>392</v>
+      <c r="A240" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" s="4" t="s">
-        <v>393</v>
+      <c r="A241" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" s="4" t="s">
-        <v>395</v>
+      <c r="A242" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" s="4" t="s">
-        <v>396</v>
+      <c r="A243" s="9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" s="4" t="s">
-        <v>397</v>
+      <c r="A244" s="9" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" s="4" t="s">
-        <v>399</v>
+      <c r="A245" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" s="4" t="s">
-        <v>400</v>
+      <c r="A246" s="9" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" s="4" t="s">
-        <v>401</v>
+      <c r="A247" s="9" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" s="4" t="s">
-        <v>403</v>
+      <c r="A248" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" s="4" t="s">
-        <v>404</v>
+      <c r="A249" s="9" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" s="4" t="s">
-        <v>405</v>
+      <c r="A250" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" s="4" t="s">
-        <v>407</v>
+      <c r="A251" s="9" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" s="4" t="s">
-        <v>408</v>
+      <c r="A252" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" s="4" t="s">
-        <v>409</v>
+      <c r="A253" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" s="4" t="s">
-        <v>411</v>
+      <c r="A254" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" s="4" t="s">
-        <v>412</v>
+      <c r="A255" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" s="4" t="s">
-        <v>413</v>
+      <c r="A256" s="9" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" s="4" t="s">
-        <v>415</v>
+      <c r="A257" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" s="4" t="s">
-        <v>416</v>
+      <c r="A258" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" s="4" t="s">
-        <v>417</v>
+      <c r="A259" s="9" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" s="4" t="s">
-        <v>419</v>
+      <c r="A260" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" s="4" t="s">
-        <v>420</v>
+      <c r="A261" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" s="4" t="s">
-        <v>421</v>
+      <c r="A262" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" s="4" t="s">
-        <v>422</v>
+      <c r="A263" s="9" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" s="4" t="s">
-        <v>424</v>
+      <c r="A264" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" s="4" t="s">
-        <v>425</v>
+      <c r="A265" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" s="4" t="s">
-        <v>426</v>
+      <c r="A266" s="9" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" s="4" t="s">
-        <v>428</v>
+      <c r="A267" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>429</v>
+      <c r="A268" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" s="4" t="s">
-        <v>430</v>
+      <c r="A269" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
-        <v>432</v>
+      <c r="A270" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" s="4" t="s">
-        <v>433</v>
+      <c r="A271" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
-        <v>434</v>
+      <c r="A272" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" s="4" t="s">
-        <v>436</v>
+      <c r="A273" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" s="4" t="s">
-        <v>437</v>
+      <c r="A274" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" s="4" t="s">
-        <v>438</v>
+      <c r="A275" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" s="4" t="s">
-        <v>440</v>
+      <c r="A276" s="9" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" s="4" t="s">
-        <v>441</v>
+      <c r="A277" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" s="4" t="s">
-        <v>442</v>
+      <c r="A278" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" s="4" t="s">
-        <v>444</v>
+      <c r="A279" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" s="4" t="s">
-        <v>445</v>
+      <c r="A280" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" s="4" t="s">
-        <v>446</v>
+      <c r="A281" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" s="4" t="s">
-        <v>448</v>
+      <c r="A282" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" s="4" t="s">
-        <v>449</v>
+      <c r="A283" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" s="4" t="s">
-        <v>450</v>
+      <c r="A284" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" s="4" t="s">
-        <v>452</v>
+      <c r="A285" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" s="4" t="s">
-        <v>453</v>
+      <c r="A286" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" s="4" t="s">
-        <v>454</v>
+      <c r="A287" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" s="4" t="s">
-        <v>456</v>
+      <c r="A288" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" s="4" t="s">
-        <v>457</v>
+      <c r="A289" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" s="4" t="s">
-        <v>458</v>
+      <c r="A290" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="4" t="s">
-        <v>460</v>
+      <c r="A291" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="4" t="s">
-        <v>461</v>
+      <c r="A292" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="4" t="s">
-        <v>463</v>
+      <c r="A293" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="4" t="s">
-        <v>464</v>
+      <c r="A294" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="4" t="s">
-        <v>466</v>
+      <c r="A295" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="4" t="s">
-        <v>467</v>
+      <c r="A296" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="4" t="s">
-        <v>469</v>
+      <c r="A297" s="9" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="4" t="s">
-        <v>470</v>
+      <c r="A298" s="9" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="4" t="s">
-        <v>472</v>
+      <c r="A299" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="A300" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{A4322AC0-E588-EB49-BDAA-576057582B1C}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{5E85D725-7C57-2446-B047-E9B12D3C6BA1}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{35C6243B-D35A-9949-BC19-1AF792D943F7}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{B5D5A734-FD09-2749-9723-B7FC4CD754F1}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{66100D9B-3527-4E4B-B7E2-8B9268441A1D}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{6019B934-8CA3-9B44-84B2-5146D2324709}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{FEC9F74C-C041-E048-B129-6E0B016CDEAA}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{F066CE9F-9ABE-AA45-A3DB-9546DA6510B2}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{C077DCB7-88FF-C048-A347-A8559813D162}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{87C16E65-B1F8-F549-870B-CFFE6E56B5E0}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{07ADA5C3-BDFF-3047-B52B-9EF4BFFD83BA}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{52FD3E26-462C-8742-807B-CD37676744F1}"/>
-    <hyperlink ref="A13" r:id="rId13" xr:uid="{890C5337-1573-F949-A210-711E8E40303D}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{41132DBD-026B-2A44-B24B-A26AF48933F2}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{CCD1C266-393D-144C-82CC-197674E3FEAA}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{7A9DC98F-7EB9-6041-A3D4-D3ED8E073DF9}"/>
-    <hyperlink ref="A17" r:id="rId17" xr:uid="{42F4BF95-6D6A-2F43-9D14-065348ABAB60}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{7D4786F0-B5FA-D74B-A645-3EB249DFC57F}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{83757695-43E2-1549-B7D8-65008F4152E6}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{08759EDF-39B2-4342-982B-8B1C6950E244}"/>
-    <hyperlink ref="A21" r:id="rId21" xr:uid="{9E74F9DA-6423-B64E-B786-015226AAFB28}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{BE746BDB-4956-DF41-AD13-C2FC2D4D409A}"/>
-    <hyperlink ref="A23" r:id="rId23" xr:uid="{C67168CD-968C-3D46-80DF-1FD0572E109C}"/>
-    <hyperlink ref="A24" r:id="rId24" xr:uid="{9954ED4B-3A46-694C-8CBA-4190DC36CA68}"/>
-    <hyperlink ref="A25" r:id="rId25" xr:uid="{DD13EF20-C940-6A46-B0A7-6B976FF35A7A}"/>
-    <hyperlink ref="A26" r:id="rId26" xr:uid="{4A6C4CBE-36B3-C847-9C80-AA57D145ACA8}"/>
-    <hyperlink ref="A27" r:id="rId27" xr:uid="{CC7B228B-8977-8449-B438-AF90D3F630A2}"/>
-    <hyperlink ref="A28" r:id="rId28" xr:uid="{0EED43A0-B182-B04A-8F48-60361E5FFE56}"/>
-    <hyperlink ref="A29" r:id="rId29" xr:uid="{BC47B47F-5231-C545-AC5B-B4507FAF0351}"/>
-    <hyperlink ref="A30" r:id="rId30" xr:uid="{C95DF86A-4BE5-CE44-9696-85FED70AFE13}"/>
-    <hyperlink ref="A31" r:id="rId31" xr:uid="{B43CC40A-D9B9-BB47-B0CE-452E90A2833B}"/>
-    <hyperlink ref="A32" r:id="rId32" xr:uid="{36FD832E-1826-7F4D-BEC8-00442073D6E3}"/>
-    <hyperlink ref="A33" r:id="rId33" xr:uid="{9643D444-85D7-D940-8370-26F8B8AB41DE}"/>
-    <hyperlink ref="A34" r:id="rId34" xr:uid="{90A02375-6721-8843-B3D1-2FBC8937BF8F}"/>
-    <hyperlink ref="A35" r:id="rId35" xr:uid="{C264391C-DC05-3E4C-85F6-5DAFF02838C4}"/>
-    <hyperlink ref="A36" r:id="rId36" xr:uid="{09C0027C-36E6-254A-84E8-50E6DAC5C1C9}"/>
-    <hyperlink ref="A37" r:id="rId37" xr:uid="{D1443E43-D3ED-AA4A-8C93-D3266CEDF28F}"/>
-    <hyperlink ref="A38" r:id="rId38" xr:uid="{7BF9DDC5-10D4-E942-92B9-F7CAE4DDC638}"/>
-    <hyperlink ref="A39" r:id="rId39" xr:uid="{B3BB29D5-B445-4D4C-83D5-4DB5DD8BE9B3}"/>
-    <hyperlink ref="A40" r:id="rId40" xr:uid="{701B13AB-0436-FD40-8BCB-964C74E3A823}"/>
-    <hyperlink ref="A41" r:id="rId41" xr:uid="{2D1FF4E7-6FC0-3E41-9D73-12584352BDD3}"/>
-    <hyperlink ref="A42" r:id="rId42" xr:uid="{BC6C965F-1A00-4941-9D2A-17596E14E7D7}"/>
-    <hyperlink ref="A43" r:id="rId43" xr:uid="{D552FC02-5617-2748-99B6-156844CF8B19}"/>
-    <hyperlink ref="A44" r:id="rId44" xr:uid="{6A39595D-3400-F24C-9333-2D644521C28A}"/>
-    <hyperlink ref="A45" r:id="rId45" xr:uid="{E2D1A9BC-6202-B748-98E4-EC61ADC289C6}"/>
-    <hyperlink ref="A46" r:id="rId46" xr:uid="{A79EAA73-ED76-A449-95CE-2B5A74D35570}"/>
-    <hyperlink ref="A47" r:id="rId47" xr:uid="{F8025488-EFF1-8A4B-B53D-DB4816D48440}"/>
-    <hyperlink ref="A48" r:id="rId48" xr:uid="{AAF288FF-0F00-6041-822E-DB30B4155444}"/>
-    <hyperlink ref="A49" r:id="rId49" xr:uid="{77A0ACBA-B1FB-7944-904C-219400FC0C07}"/>
-    <hyperlink ref="A50" r:id="rId50" xr:uid="{ED7D59B2-B038-3B4A-8C9D-9C744FBF47C8}"/>
-    <hyperlink ref="A51" r:id="rId51" xr:uid="{D88EBBD3-F073-1947-A1C1-FBB954B1162E}"/>
-    <hyperlink ref="A52" r:id="rId52" xr:uid="{A3FCEE2D-9A0D-DB49-BCBF-33EDF8258FAC}"/>
-    <hyperlink ref="A53" r:id="rId53" xr:uid="{C0960261-0A88-B441-B9F2-5BD62DFA0BCF}"/>
-    <hyperlink ref="A54" r:id="rId54" xr:uid="{E39588FF-DE71-7347-B268-7B664FFBACF3}"/>
-    <hyperlink ref="A55" r:id="rId55" xr:uid="{68B7AFB2-B351-4B41-A711-D531DD9CCCD3}"/>
-    <hyperlink ref="A56" r:id="rId56" xr:uid="{C023FF16-32EA-2C4B-BDA2-596245655D8E}"/>
-    <hyperlink ref="A57" r:id="rId57" xr:uid="{6B95811D-8EF6-FC45-9F9C-0343931EDECD}"/>
-    <hyperlink ref="A58" r:id="rId58" xr:uid="{0F74467C-685A-6B41-A08F-24F6FAFD1B7E}"/>
-    <hyperlink ref="A59" r:id="rId59" xr:uid="{F8471C13-B0C1-9C45-A106-9C1879294C4A}"/>
-    <hyperlink ref="A60" r:id="rId60" xr:uid="{05F9377B-2E2C-3A4A-B4F7-7912AA5DD0AA}"/>
-    <hyperlink ref="A61" r:id="rId61" xr:uid="{1263E3A6-6CFB-CA41-A44B-A7585E84908B}"/>
-    <hyperlink ref="A62" r:id="rId62" xr:uid="{5EDE2448-FFAA-C94B-8DD6-AC8A45621196}"/>
-    <hyperlink ref="A63" r:id="rId63" xr:uid="{2EF93A43-7918-C149-B24D-79D7BCE6485C}"/>
-    <hyperlink ref="A64" r:id="rId64" xr:uid="{22130DE7-F550-964D-81BA-A55457EE4A3B}"/>
-    <hyperlink ref="A65" r:id="rId65" xr:uid="{16F61D93-C80B-0043-A027-4CE1E97D78CA}"/>
-    <hyperlink ref="A66" r:id="rId66" xr:uid="{C9DF9ECB-D075-9143-B542-E0091653F0BF}"/>
-    <hyperlink ref="A67" r:id="rId67" xr:uid="{680C9460-D22A-EA41-AB52-7BBC4E57E2B4}"/>
-    <hyperlink ref="A68" r:id="rId68" xr:uid="{9C50EBE4-A3CA-6640-AC44-40099E83B391}"/>
-    <hyperlink ref="A69" r:id="rId69" xr:uid="{8ADE3328-4A1D-FB41-BECA-65EDEBFA4B53}"/>
-    <hyperlink ref="A70" r:id="rId70" xr:uid="{4E720C35-EF82-5740-812F-3F8B850ADDDC}"/>
-    <hyperlink ref="A71" r:id="rId71" xr:uid="{92D763E0-7AFA-CC48-AABD-B095F959EA3D}"/>
-    <hyperlink ref="A72" r:id="rId72" xr:uid="{CA8596A0-0459-FB44-956F-0F2ED591FA78}"/>
-    <hyperlink ref="A73" r:id="rId73" xr:uid="{1024DE84-D2F1-7E42-8CF1-A9DA91BF2BB7}"/>
-    <hyperlink ref="A74" r:id="rId74" xr:uid="{2D689A58-2CAC-C447-BC49-0D4D046AF00D}"/>
-    <hyperlink ref="A75" r:id="rId75" xr:uid="{B7D304B5-2C2B-EE46-A751-B0025475DB5A}"/>
-    <hyperlink ref="A76" r:id="rId76" xr:uid="{6E4C25AC-5564-DC40-93E7-020E28B172C1}"/>
-    <hyperlink ref="A77" r:id="rId77" xr:uid="{ECB08014-C406-9548-8A00-3744B04AC174}"/>
-    <hyperlink ref="A78" r:id="rId78" xr:uid="{93368502-287D-2F4D-9E07-DE1385DF9E0B}"/>
-    <hyperlink ref="A79" r:id="rId79" xr:uid="{D72F16E8-F2C6-734F-9D15-4B291E1742B6}"/>
-    <hyperlink ref="A80" r:id="rId80" xr:uid="{535B2EDB-BD2F-2046-8AD3-955300E4AAB5}"/>
-    <hyperlink ref="A81" r:id="rId81" xr:uid="{7FF310A5-9CAC-5347-8085-FE25E67A76E4}"/>
-    <hyperlink ref="A82" r:id="rId82" xr:uid="{D2610DFA-AA7C-654E-83BF-0AE21C2DE114}"/>
-    <hyperlink ref="A83" r:id="rId83" xr:uid="{35408A02-9DE5-204F-9761-EC67FB5F5216}"/>
-    <hyperlink ref="A84" r:id="rId84" xr:uid="{0026099F-7192-704B-8725-131768D68988}"/>
-    <hyperlink ref="A85" r:id="rId85" xr:uid="{28B4AF2A-5685-6849-A271-340EE30CFD5D}"/>
-    <hyperlink ref="A86" r:id="rId86" xr:uid="{F54F5555-50CB-EF4B-AC40-4587447C3904}"/>
-    <hyperlink ref="A87" r:id="rId87" xr:uid="{56ECC850-10A6-D34D-9EFA-B4F07DEB6D25}"/>
-    <hyperlink ref="A88" r:id="rId88" xr:uid="{109FD17D-AA12-874C-B17C-96E3BD36657F}"/>
-    <hyperlink ref="A89" r:id="rId89" xr:uid="{70D4F7BC-FC53-B149-AF67-76DD1FB7D308}"/>
-    <hyperlink ref="A90" r:id="rId90" xr:uid="{3565118D-4327-DE48-9D77-1946DAB0B8A3}"/>
-    <hyperlink ref="A91" r:id="rId91" xr:uid="{5F064354-2295-A345-808B-B4EA3CABBF92}"/>
-    <hyperlink ref="A92" r:id="rId92" xr:uid="{5D3893FE-53D5-B44B-B060-D44C81F2E279}"/>
-    <hyperlink ref="A93" r:id="rId93" xr:uid="{397D25B7-BD66-A94F-A7E8-8B560B4E4642}"/>
-    <hyperlink ref="A94" r:id="rId94" xr:uid="{7E90B37D-14EA-D141-9EF0-E7C68F6A3F31}"/>
-    <hyperlink ref="A95" r:id="rId95" xr:uid="{5F113C30-4E2E-8046-866B-A81DB0944782}"/>
-    <hyperlink ref="A96" r:id="rId96" xr:uid="{E81E639D-EF12-7749-90A9-5F085874AF6F}"/>
-    <hyperlink ref="A97" r:id="rId97" xr:uid="{6AE824E7-A63A-D14E-BD7C-F5B1CA90E47F}"/>
-    <hyperlink ref="A98" r:id="rId98" xr:uid="{3C2FB01F-0930-664B-8803-2C9BCD8CC929}"/>
-    <hyperlink ref="A99" r:id="rId99" xr:uid="{3EFD9706-0D24-1643-A210-0DED2572A07B}"/>
-    <hyperlink ref="A100" r:id="rId100" xr:uid="{D2DEBA53-78D8-E34C-B876-7E6FB50AA81F}"/>
-    <hyperlink ref="A101" r:id="rId101" xr:uid="{7F138238-780A-424D-82A7-B6D2ED018357}"/>
-    <hyperlink ref="A102" r:id="rId102" xr:uid="{63722B91-26F6-BE40-A450-7A2CC7D0988B}"/>
-    <hyperlink ref="A103" r:id="rId103" xr:uid="{2CCB3228-525A-CB40-BB0D-5ABAA3548342}"/>
-    <hyperlink ref="A104" r:id="rId104" xr:uid="{D9893CC6-3F6F-0446-A35E-338524CFBCD5}"/>
-    <hyperlink ref="A105" r:id="rId105" xr:uid="{0E7D33EE-F066-0E47-861B-3C13B94F6199}"/>
-    <hyperlink ref="A106" r:id="rId106" xr:uid="{E16AB467-849F-2C4D-941C-E96AAFAD4A6E}"/>
-    <hyperlink ref="A107" r:id="rId107" xr:uid="{00CD713D-2D3D-0044-A8B0-048E84896B3F}"/>
-    <hyperlink ref="A108" r:id="rId108" xr:uid="{30ADC34C-12F5-FE46-B830-502FEAF3FFF8}"/>
-    <hyperlink ref="A109" r:id="rId109" xr:uid="{40D61984-0D1F-0F41-B86C-A219330E4944}"/>
-    <hyperlink ref="A110" r:id="rId110" xr:uid="{32D6C8CE-1B0A-0A42-9D1C-B6F72175E05A}"/>
-    <hyperlink ref="A111" r:id="rId111" xr:uid="{B75E4D9D-01E1-4F44-9524-01F9782F776C}"/>
-    <hyperlink ref="A112" r:id="rId112" xr:uid="{42E10421-0D1F-314F-B5F2-6454B656CC47}"/>
-    <hyperlink ref="A113" r:id="rId113" xr:uid="{5FD4403E-FC11-3D49-8569-CE7074A19E37}"/>
-    <hyperlink ref="A114" r:id="rId114" xr:uid="{430E7AF0-61DC-B44B-8034-7741ACE39983}"/>
-    <hyperlink ref="A115" r:id="rId115" xr:uid="{68E7BF6F-1C4B-2C4B-A6FC-8ECE7AB96B14}"/>
-    <hyperlink ref="A116" r:id="rId116" xr:uid="{15AA1145-DEAF-8C46-8E0B-B30A2B3E4FDD}"/>
-    <hyperlink ref="A117" r:id="rId117" xr:uid="{143C3E19-2A40-A048-B8D7-F60E2342DA89}"/>
-    <hyperlink ref="A118" r:id="rId118" xr:uid="{2F150E9C-573A-6C4D-8B8E-9398AD29BD15}"/>
-    <hyperlink ref="A119" r:id="rId119" xr:uid="{D15B844D-10AD-BF4B-8729-21C6DFF07A45}"/>
-    <hyperlink ref="A120" r:id="rId120" xr:uid="{A85551A5-E3C8-3247-A5B2-5A36394821BD}"/>
-    <hyperlink ref="A121" r:id="rId121" xr:uid="{A2A8C930-C501-3143-BDDC-3B74311908C1}"/>
-    <hyperlink ref="A122" r:id="rId122" xr:uid="{4734F87C-C3ED-DE40-A435-2EC528ED13C3}"/>
-    <hyperlink ref="A123" r:id="rId123" xr:uid="{348A3AFF-546E-C247-A6E2-3E28D2F5A129}"/>
-    <hyperlink ref="A124" r:id="rId124" xr:uid="{759E3296-873C-E147-B43F-C44A497FBC21}"/>
-    <hyperlink ref="A125" r:id="rId125" xr:uid="{EAFAE721-CA86-1A46-83A5-2DF43102AC05}"/>
-    <hyperlink ref="A126" r:id="rId126" xr:uid="{3A9B09B5-2A2A-874B-A0AA-7BC6BB8E6B0E}"/>
-    <hyperlink ref="A127" r:id="rId127" xr:uid="{A97A0733-C30D-934E-B710-2FF49AB5408F}"/>
-    <hyperlink ref="A128" r:id="rId128" xr:uid="{95CE8D09-FF1B-9E4A-BAF6-9A2B7EF7D06A}"/>
-    <hyperlink ref="A129" r:id="rId129" xr:uid="{A99F665F-54B5-144B-911B-8D47AB331431}"/>
-    <hyperlink ref="A130" r:id="rId130" xr:uid="{B3431B68-EA0C-FA4B-8D21-09DF9A78D2F7}"/>
-    <hyperlink ref="A131" r:id="rId131" xr:uid="{ED47B68C-4179-624A-A4F7-F66E2D34F2AE}"/>
-    <hyperlink ref="A132" r:id="rId132" xr:uid="{FF0096DD-A740-534D-B625-C59AB679D901}"/>
-    <hyperlink ref="A133" r:id="rId133" xr:uid="{386968F3-88E3-B147-8CF8-A25269F6A321}"/>
-    <hyperlink ref="A134" r:id="rId134" xr:uid="{FC9B82A6-860C-2648-9732-D5B623151CD3}"/>
-    <hyperlink ref="A135" r:id="rId135" xr:uid="{D5F51384-77A4-9447-BFFB-0BA7F4DB38B1}"/>
-    <hyperlink ref="A136" r:id="rId136" xr:uid="{D4005442-C592-4149-B59B-272E70344EA8}"/>
-    <hyperlink ref="A137" r:id="rId137" xr:uid="{9A9791F4-193A-CC4D-8EFA-FCF152364858}"/>
-    <hyperlink ref="A138" r:id="rId138" xr:uid="{C353DE83-61CB-B64B-8C63-A3ECD7C3BE21}"/>
-    <hyperlink ref="A139" r:id="rId139" xr:uid="{DE0C9E2F-53D5-4942-80C0-5D51BFAF12DA}"/>
-    <hyperlink ref="A140" r:id="rId140" xr:uid="{C9EE8288-0D2C-2A42-A68C-FC4CB8639B1E}"/>
-    <hyperlink ref="A141" r:id="rId141" xr:uid="{70C74B54-4C1F-3747-95C7-B84C631030B4}"/>
-    <hyperlink ref="A142" r:id="rId142" xr:uid="{73532711-1D7C-D44A-A941-FF731DFE77AF}"/>
-    <hyperlink ref="A143" r:id="rId143" xr:uid="{099752B5-4FC2-5D4C-89EC-77B4F7799C18}"/>
-    <hyperlink ref="A144" r:id="rId144" xr:uid="{B28B9F56-F007-464C-A81D-B4544583B10E}"/>
-    <hyperlink ref="A145" r:id="rId145" xr:uid="{FF0BD415-4CE5-8342-BC95-F96357B47173}"/>
-    <hyperlink ref="A146" r:id="rId146" xr:uid="{51A6CEC5-6AF4-204C-B3FA-F26D3EED7140}"/>
-    <hyperlink ref="A147" r:id="rId147" xr:uid="{F7C75635-0EC7-824C-9E17-01183F911250}"/>
-    <hyperlink ref="A148" r:id="rId148" xr:uid="{FA2EBCCF-50D8-3543-AF88-FB5E364BED11}"/>
-    <hyperlink ref="A149" r:id="rId149" xr:uid="{68A11D8D-A29B-A643-BE17-EAFE5204F967}"/>
-    <hyperlink ref="A150" r:id="rId150" xr:uid="{F2355D45-F01C-174B-9872-CE753EA6BE81}"/>
-    <hyperlink ref="A151" r:id="rId151" xr:uid="{DD3991EE-610B-184A-A2BF-55AFDAE88AA7}"/>
-    <hyperlink ref="A152" r:id="rId152" xr:uid="{2F29192D-8A27-744C-9586-06FE4673A99E}"/>
-    <hyperlink ref="A153" r:id="rId153" xr:uid="{08CEFD76-3AAC-2940-B5F8-44B9C21C492E}"/>
-    <hyperlink ref="A154" r:id="rId154" xr:uid="{D8ADFE3F-B4AB-844C-BE6D-F6385E2E2ED5}"/>
-    <hyperlink ref="A155" r:id="rId155" xr:uid="{EAF89D65-CDCD-5F4E-A864-D8A9B65A4AD2}"/>
-    <hyperlink ref="A156" r:id="rId156" xr:uid="{E8B04C50-E361-A24B-8285-54F9C2D37444}"/>
-    <hyperlink ref="A157" r:id="rId157" xr:uid="{7A77B668-C48D-304D-9B5E-821B66BE51F0}"/>
-    <hyperlink ref="A158" r:id="rId158" xr:uid="{1D8D3B07-4DD1-A247-BC7F-DEB7F2E1024C}"/>
-    <hyperlink ref="A159" r:id="rId159" xr:uid="{A7E98045-489B-4A4F-91BC-6B3BC5ED059C}"/>
-    <hyperlink ref="A160" r:id="rId160" xr:uid="{6E60C70B-D5FB-DA45-BC12-141F2693E82B}"/>
-    <hyperlink ref="A161" r:id="rId161" xr:uid="{C1490D0C-982D-F447-BD77-945D2C0E38F0}"/>
-    <hyperlink ref="A162" r:id="rId162" xr:uid="{79F2D60D-B251-FD49-BA87-44F5F1FB9720}"/>
-    <hyperlink ref="A163" r:id="rId163" xr:uid="{6B3090D8-3183-7B49-B2E2-0F899BD1AE10}"/>
-    <hyperlink ref="A164" r:id="rId164" xr:uid="{0ECF0D83-1571-CE4B-B78A-5CA7B88DD65E}"/>
-    <hyperlink ref="A165" r:id="rId165" xr:uid="{74D04069-93CC-6B47-A697-AADE7D4AD13A}"/>
-    <hyperlink ref="A166" r:id="rId166" xr:uid="{F22A65CF-2E95-ED4A-993D-082C1F2562D4}"/>
-    <hyperlink ref="A167" r:id="rId167" xr:uid="{3ECEDC19-AE20-EE44-8CBA-04EC899FB500}"/>
-    <hyperlink ref="A168" r:id="rId168" xr:uid="{84B5367C-5433-8345-B853-CA229EF2D3E9}"/>
-    <hyperlink ref="A169" r:id="rId169" xr:uid="{185C4BC1-477D-1B40-8A0B-D10770CF5F14}"/>
-    <hyperlink ref="A170" r:id="rId170" xr:uid="{7FE2F65F-46A2-8845-819E-26CEFC564975}"/>
-    <hyperlink ref="A171" r:id="rId171" xr:uid="{BFCC3A95-77CF-7E49-AB23-39814B526473}"/>
-    <hyperlink ref="A172" r:id="rId172" xr:uid="{5DCE195E-035C-794A-A8E2-DD2EB89088FE}"/>
-    <hyperlink ref="A173" r:id="rId173" xr:uid="{F98D09EE-8195-6B43-AC9E-8682F2E75CF3}"/>
-    <hyperlink ref="A174" r:id="rId174" xr:uid="{7C5C3A10-98E8-714C-921D-18656089A1EA}"/>
-    <hyperlink ref="A175" r:id="rId175" xr:uid="{BE6DF037-0C69-504E-905F-957D20F90ED4}"/>
-    <hyperlink ref="A176" r:id="rId176" xr:uid="{00C09CAC-F168-B747-AFF6-ABAE53080412}"/>
-    <hyperlink ref="A177" r:id="rId177" xr:uid="{8A88F10E-EF87-A54B-B15B-69E627036783}"/>
-    <hyperlink ref="A178" r:id="rId178" xr:uid="{C1818D66-ACA1-B549-9365-87D86A9AB3C4}"/>
-    <hyperlink ref="A179" r:id="rId179" xr:uid="{BA3311E1-EB80-0349-92EE-02C733B5EE47}"/>
-    <hyperlink ref="A180" r:id="rId180" xr:uid="{FE62721C-3EFB-5E4F-9B52-3D504C6DC7BB}"/>
-    <hyperlink ref="A181" r:id="rId181" xr:uid="{3E19DD0C-1C7E-7F4E-BA94-9ED0BA04947F}"/>
-    <hyperlink ref="A182" r:id="rId182" xr:uid="{DAFE824C-D152-6C4F-9E6A-28E1E9BE6ACD}"/>
-    <hyperlink ref="A183" r:id="rId183" xr:uid="{4707839F-FC9E-AF4F-BB36-0880C192AACE}"/>
-    <hyperlink ref="A184" r:id="rId184" xr:uid="{EB5A27F7-81D0-D948-9F08-BB5C40CB8860}"/>
-    <hyperlink ref="A185" r:id="rId185" xr:uid="{7A993E07-A730-B246-818A-F43D5CCDCCDE}"/>
-    <hyperlink ref="A186" r:id="rId186" xr:uid="{A008A3B6-AA0C-BE4E-AD62-C62A365B5450}"/>
-    <hyperlink ref="A187" r:id="rId187" xr:uid="{8164004A-64B4-2F4E-8B11-8EFA44218BDF}"/>
-    <hyperlink ref="A188" r:id="rId188" xr:uid="{4EA70748-A42F-5045-8CE1-065A520D2A5D}"/>
-    <hyperlink ref="A189" r:id="rId189" xr:uid="{DE0E3C0E-86C4-2044-98A3-4D7C9BABC1B1}"/>
-    <hyperlink ref="A190" r:id="rId190" xr:uid="{EC5F0B36-A721-6243-89C2-2FF379F397C5}"/>
-    <hyperlink ref="A191" r:id="rId191" xr:uid="{070C4B30-610F-AC40-B3FC-6F393B369D00}"/>
-    <hyperlink ref="A192" r:id="rId192" xr:uid="{C9F4DB52-217C-A84A-A007-234277CBF441}"/>
-    <hyperlink ref="A193" r:id="rId193" xr:uid="{8E8F2638-5285-DA47-A499-678207C429ED}"/>
-    <hyperlink ref="A194" r:id="rId194" xr:uid="{8A1D7074-2B80-2F4D-80D7-5F96981F6F1E}"/>
-    <hyperlink ref="A195" r:id="rId195" xr:uid="{8C726493-28A2-1C4C-BB86-40F80E3B6F2D}"/>
-    <hyperlink ref="A196" r:id="rId196" xr:uid="{18720673-686C-ED4A-96B4-59AC2A47F9B7}"/>
-    <hyperlink ref="A197" r:id="rId197" xr:uid="{BEA74A0C-0C7D-F049-9A0B-3013A36BD398}"/>
-    <hyperlink ref="A198" r:id="rId198" xr:uid="{E1DFA2C9-7704-B243-8131-FE63EF5A5E56}"/>
-    <hyperlink ref="A199" r:id="rId199" xr:uid="{F02EF736-295E-5E46-AF1F-8FB060729B2B}"/>
-    <hyperlink ref="A200" r:id="rId200" xr:uid="{1A262093-E22B-D348-BDB3-FC07582E768E}"/>
-    <hyperlink ref="A201" r:id="rId201" xr:uid="{25E37A33-72EB-7749-AEE0-E999914DB14B}"/>
-    <hyperlink ref="A202" r:id="rId202" xr:uid="{892E5A90-45F9-B746-BCCC-E08D82CD6A95}"/>
-    <hyperlink ref="A203" r:id="rId203" xr:uid="{65BCF05F-95B7-9545-BAB5-DE7D804C74B4}"/>
-    <hyperlink ref="A204" r:id="rId204" xr:uid="{78247D26-6133-EF4B-9923-B81117929634}"/>
-    <hyperlink ref="A205" r:id="rId205" xr:uid="{1D323953-C4D5-F14B-B782-003668D675FC}"/>
-    <hyperlink ref="A206" r:id="rId206" xr:uid="{0551F3CE-FD3D-5C41-9FF6-167C2229A925}"/>
-    <hyperlink ref="A207" r:id="rId207" xr:uid="{94A5B77C-BD2F-464C-8F04-06ACDA9F6108}"/>
-    <hyperlink ref="A208" r:id="rId208" xr:uid="{FB1E7B32-412C-534F-A945-FF3E83121B95}"/>
-    <hyperlink ref="A209" r:id="rId209" xr:uid="{A2B842C9-7950-6C41-8FDD-2D948C14663D}"/>
-    <hyperlink ref="A210" r:id="rId210" xr:uid="{4791AB23-B10B-6947-A09C-E59A0992409E}"/>
-    <hyperlink ref="A211" r:id="rId211" xr:uid="{CEE2B2A2-6B53-D94C-8C44-EF8B2A99E4F9}"/>
-    <hyperlink ref="A212" r:id="rId212" xr:uid="{EF49FD81-6A5A-C940-B1ED-827BD5F6F811}"/>
-    <hyperlink ref="A213" r:id="rId213" xr:uid="{32CA329C-1951-8A42-8D74-FE4A76673428}"/>
-    <hyperlink ref="A214" r:id="rId214" xr:uid="{E0455830-2995-C640-B9E8-43C5428F5403}"/>
-    <hyperlink ref="A215" r:id="rId215" xr:uid="{C7E9E197-3AD2-ED49-9584-6FEE2A2FE03B}"/>
-    <hyperlink ref="A216" r:id="rId216" xr:uid="{E6879069-E742-F14C-BB37-832F43A7E02E}"/>
-    <hyperlink ref="A217" r:id="rId217" xr:uid="{4DE6A90C-629F-DE4F-831A-281CB9B03289}"/>
-    <hyperlink ref="A218" r:id="rId218" xr:uid="{399565D7-0DB1-9248-B2AD-88466A9EA29A}"/>
-    <hyperlink ref="A219" r:id="rId219" xr:uid="{B62B195A-E102-0544-AFB8-CF4C7A86257C}"/>
-    <hyperlink ref="A220" r:id="rId220" xr:uid="{672FA007-8AEB-FD42-87EC-E6A8D1CCA42C}"/>
-    <hyperlink ref="A221" r:id="rId221" xr:uid="{AF60964F-8321-8242-9474-D45590FF392A}"/>
-    <hyperlink ref="A222" r:id="rId222" xr:uid="{2A82360F-A822-A047-BBE3-5577FA349170}"/>
-    <hyperlink ref="A223" r:id="rId223" xr:uid="{75912766-9751-7449-8F4B-F9EFC05ED55E}"/>
-    <hyperlink ref="A224" r:id="rId224" xr:uid="{2EDEB0FC-897C-BB48-9472-EDED8D67801C}"/>
-    <hyperlink ref="A225" r:id="rId225" xr:uid="{B758ED5B-5C7C-8949-BD66-119D82639C9C}"/>
-    <hyperlink ref="A226" r:id="rId226" xr:uid="{2A2C5676-AF54-1C40-BE59-13820CCD50E6}"/>
-    <hyperlink ref="A227" r:id="rId227" xr:uid="{9688A994-D51A-7F4B-813C-95D681863268}"/>
-    <hyperlink ref="A228" r:id="rId228" xr:uid="{587D2D3D-B562-D14D-B52E-8E0A2A2F4526}"/>
-    <hyperlink ref="A229" r:id="rId229" xr:uid="{34F11F7B-3CD9-5C49-9EBA-EC218D5B33D5}"/>
-    <hyperlink ref="A230" r:id="rId230" xr:uid="{0B32DFBA-21A3-534F-95F3-8CC4A661023D}"/>
-    <hyperlink ref="A231" r:id="rId231" xr:uid="{EEF70653-8D63-2E43-9AA4-04FFECC08C53}"/>
-    <hyperlink ref="A232" r:id="rId232" xr:uid="{4329A089-9A82-844B-8951-7D5625D2691E}"/>
-    <hyperlink ref="A233" r:id="rId233" xr:uid="{BE9E49F8-D38A-A440-A27E-7126784CBC46}"/>
-    <hyperlink ref="A234" r:id="rId234" xr:uid="{B20EDCED-BC3F-414F-97DA-D8F925F1DCE4}"/>
-    <hyperlink ref="A235" r:id="rId235" xr:uid="{6CA1128E-FDB7-EF49-8958-5CAC00670E0D}"/>
-    <hyperlink ref="A236" r:id="rId236" xr:uid="{4BF395A9-403E-3546-BF53-7A74D25AB353}"/>
-    <hyperlink ref="A237" r:id="rId237" xr:uid="{1F4C665D-99CC-0F40-B8B2-3803E9F2955A}"/>
-    <hyperlink ref="A238" r:id="rId238" xr:uid="{D118F23A-FE3A-D44A-A15C-7D1E525F7C38}"/>
-    <hyperlink ref="A239" r:id="rId239" xr:uid="{97A6C6FF-61E1-1B46-87B5-DCEDB42D19DE}"/>
-    <hyperlink ref="A240" r:id="rId240" xr:uid="{7E2ADD56-2D23-2840-8014-E627ACD5609A}"/>
-    <hyperlink ref="A241" r:id="rId241" xr:uid="{B83A8273-7B61-1847-9817-89E4E2699B85}"/>
-    <hyperlink ref="A242" r:id="rId242" xr:uid="{05ED2459-F3B1-7E46-81C0-D8E76455B343}"/>
-    <hyperlink ref="A243" r:id="rId243" xr:uid="{885FDEE3-8CA3-9247-976E-EECCE2F49E86}"/>
-    <hyperlink ref="A244" r:id="rId244" xr:uid="{2A1B5188-4B48-E44A-822E-90A3F9585D50}"/>
-    <hyperlink ref="A245" r:id="rId245" xr:uid="{25260ADA-0889-224E-9661-C9BF8A27891D}"/>
-    <hyperlink ref="A246" r:id="rId246" xr:uid="{B766C56D-37E1-2A47-B33D-8E3B14DF723E}"/>
-    <hyperlink ref="A247" r:id="rId247" xr:uid="{7C27D67C-CE79-C749-9657-35D59D1B540B}"/>
-    <hyperlink ref="A248" r:id="rId248" xr:uid="{E49E817C-0792-6D40-8CF8-54612CF9B76F}"/>
-    <hyperlink ref="A249" r:id="rId249" xr:uid="{D80F7819-301B-FC4F-976E-63A70C9DEC92}"/>
-    <hyperlink ref="A250" r:id="rId250" xr:uid="{1CB5B1F7-DB76-654B-B9B5-AD9E09C9B6CB}"/>
-    <hyperlink ref="A251" r:id="rId251" xr:uid="{F77C1DED-46C9-1443-A431-149669839F43}"/>
-    <hyperlink ref="A252" r:id="rId252" xr:uid="{06A2BF7E-7157-A84A-A9B5-1F00DB2E1B40}"/>
-    <hyperlink ref="A253" r:id="rId253" xr:uid="{FCC416F7-1C60-9343-ADE0-201A3C53C533}"/>
-    <hyperlink ref="A254" r:id="rId254" xr:uid="{C7BFF601-60CA-DD4D-A4C4-1E434B0C3B53}"/>
-    <hyperlink ref="A255" r:id="rId255" xr:uid="{5AC62809-0AA2-0749-A805-5C31E2623570}"/>
-    <hyperlink ref="A256" r:id="rId256" xr:uid="{31726A44-1960-514D-8E1C-246F54BD0926}"/>
-    <hyperlink ref="A257" r:id="rId257" xr:uid="{2F1DB5A7-D227-814B-B952-84D7E6F2D618}"/>
-    <hyperlink ref="A258" r:id="rId258" xr:uid="{466EC183-9C49-7E4D-AF13-C74D0367A815}"/>
-    <hyperlink ref="A259" r:id="rId259" xr:uid="{C7441C5C-D11B-6F44-BD75-A48C27DB54AE}"/>
-    <hyperlink ref="A260" r:id="rId260" xr:uid="{6FB65934-5B24-BA44-8458-4F804DAAD3D4}"/>
-    <hyperlink ref="A261" r:id="rId261" xr:uid="{67AF6E08-4DBF-614F-A35E-0FD70549A947}"/>
-    <hyperlink ref="A262" r:id="rId262" xr:uid="{21B73B54-8095-6C4F-AB56-456C9F3C2430}"/>
-    <hyperlink ref="A263" r:id="rId263" xr:uid="{F3DFDC10-8308-F845-A115-AADA96113014}"/>
-    <hyperlink ref="A264" r:id="rId264" xr:uid="{4FD0B8BD-CF95-F140-85BA-882EB40BD47C}"/>
-    <hyperlink ref="A265" r:id="rId265" xr:uid="{557C5E08-08AA-B249-A370-012305E08B45}"/>
-    <hyperlink ref="A266" r:id="rId266" xr:uid="{54E6D709-CBB1-ED4A-87ED-2960878BFC10}"/>
-    <hyperlink ref="A267" r:id="rId267" xr:uid="{4671A5AF-F4C5-2B40-8D63-6068960D1E92}"/>
-    <hyperlink ref="A268" r:id="rId268" xr:uid="{FB38BEBD-033D-104D-802E-04F017650B3D}"/>
-    <hyperlink ref="A269" r:id="rId269" xr:uid="{FAD009A8-EBA5-1F40-9532-971DD309C80F}"/>
-    <hyperlink ref="A270" r:id="rId270" xr:uid="{F1E79F41-F963-D249-AB76-19A679627244}"/>
-    <hyperlink ref="A271" r:id="rId271" xr:uid="{2B15728A-4154-364D-9402-6555B1441DCB}"/>
-    <hyperlink ref="A272" r:id="rId272" xr:uid="{95DEE3C8-CFC6-9145-B968-EC2F33E9F98A}"/>
-    <hyperlink ref="A273" r:id="rId273" xr:uid="{08669486-A5BF-BF45-B017-194C5E4A3CA5}"/>
-    <hyperlink ref="A274" r:id="rId274" xr:uid="{86375797-79FA-D14B-B7FE-BE24870F354F}"/>
-    <hyperlink ref="A275" r:id="rId275" xr:uid="{331BD34A-EFD3-E145-81FD-C3A3A414E9F6}"/>
-    <hyperlink ref="A276" r:id="rId276" xr:uid="{DA613698-DEAE-7F48-8EAF-77EC7E6B275F}"/>
-    <hyperlink ref="A277" r:id="rId277" xr:uid="{B6D2DC71-3437-4546-9A2B-4C57B0C14F0B}"/>
-    <hyperlink ref="A278" r:id="rId278" xr:uid="{58435D4B-2927-0042-A5E6-BC537AC3D735}"/>
-    <hyperlink ref="A279" r:id="rId279" xr:uid="{0E6ED6F9-AD48-CA4D-B51B-680573041C46}"/>
-    <hyperlink ref="A280" r:id="rId280" xr:uid="{AA69C421-0C15-024A-B4F6-528B4003D36C}"/>
-    <hyperlink ref="A281" r:id="rId281" xr:uid="{3A4EA8B0-3435-5E47-AD51-963B35FED909}"/>
-    <hyperlink ref="A282" r:id="rId282" xr:uid="{95F2E1EA-BA8A-8E40-B842-D48FBC3AFBBE}"/>
-    <hyperlink ref="A283" r:id="rId283" xr:uid="{9A323D22-7E55-A24B-A0B1-F45BF7508CEA}"/>
-    <hyperlink ref="A284" r:id="rId284" xr:uid="{3FD48443-8C89-0340-BA8E-1684BC1ACBA0}"/>
-    <hyperlink ref="A285" r:id="rId285" xr:uid="{3CE1F337-EF5A-6D4B-AE8A-C7604443E15B}"/>
-    <hyperlink ref="A286" r:id="rId286" xr:uid="{1BA903FE-21D0-A649-92DD-3187AC60286D}"/>
-    <hyperlink ref="A287" r:id="rId287" xr:uid="{4806D61B-8A3B-9B45-8AFB-8AFB37D9D013}"/>
-    <hyperlink ref="A288" r:id="rId288" xr:uid="{185F5C0E-86B1-7746-8799-C904713549F9}"/>
-    <hyperlink ref="A289" r:id="rId289" xr:uid="{42536A30-BE6C-1E4E-8353-F6CA6D0B5561}"/>
-    <hyperlink ref="A290" r:id="rId290" xr:uid="{BD850257-3976-9949-BACF-FA2526AF4BFD}"/>
-    <hyperlink ref="A291" r:id="rId291" xr:uid="{707BD707-3508-044F-A7F8-341C8F9616F0}"/>
-    <hyperlink ref="A292" r:id="rId292" xr:uid="{9B448F53-6240-A84F-9BD8-37C22A21921F}"/>
-    <hyperlink ref="A293" r:id="rId293" xr:uid="{A051BB74-8A8B-CA49-BD34-B17D3D4FFC27}"/>
-    <hyperlink ref="A294" r:id="rId294" xr:uid="{1CFB8D42-CE3C-1B4E-8F19-97E2D8827B0B}"/>
-    <hyperlink ref="A295" r:id="rId295" xr:uid="{6E8EA458-D948-B04E-BCD2-B2E704E0FBB1}"/>
-    <hyperlink ref="A296" r:id="rId296" xr:uid="{832E5E60-EBB9-E645-9AAD-64A6FC27D8D1}"/>
-    <hyperlink ref="A297" r:id="rId297" xr:uid="{8EA05554-5D22-9F40-B17F-864D8B9AC099}"/>
-    <hyperlink ref="A298" r:id="rId298" xr:uid="{5C05CBD9-5260-F74E-A843-3FB65801E000}"/>
-    <hyperlink ref="A299" r:id="rId299" xr:uid="{3ECC3068-B734-E949-9A1F-812E50398F84}"/>
-    <hyperlink ref="A300" r:id="rId300" xr:uid="{322DAF8D-7CDE-5F47-A115-118200F154DA}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3D86AF94-0DCD-0142-92F4-6DB241217694}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{2035CF5F-9194-9442-858F-5DFA085C06C0}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{BFEBDA82-3326-924D-A54B-C6FB6C7CEB85}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{D6303ECA-1A2B-8F49-945E-F40EB49BD179}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{8AA5855D-681F-6241-82D4-E757774BB4C0}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{5C134AA1-94CC-5A4B-BB0E-88E2F26D0934}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{1253C974-760F-6B48-A357-4A4103A491FD}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{F860714E-C324-B241-8445-3A11F8B1E40F}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{CFE73B73-C640-AB45-97B3-35386A3570AB}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{E418AD09-5DB6-8046-A7F8-0EFB769C3BE5}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{14075588-8E06-C64E-BB9D-8BB54FC3A69D}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{FC203A7D-BFEC-CA43-BC14-C5C01E9853B9}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{96ECCF62-90FB-2B47-B306-AEEEC72C97B3}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{544D527F-FB6B-E140-8CB5-CFB65907B2E9}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{F6DDE5FE-2E95-3045-9579-1654873FBEE0}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{252B85F3-B7C4-4A4C-8C8C-F81686978972}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{A74E47F4-F2EC-604A-B38C-9CF0F4653095}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{9220C576-0983-9D4C-902D-9E330C9780E2}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{976A1DA0-CEC8-4D4F-892F-7E178BD475F6}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{B52EDF9F-D606-8B41-B7DB-A87307D8DC83}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{D4C45792-4D0B-E74B-A753-5113414D3092}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{06C8DD12-F354-064C-A5AD-F01766C3D1DD}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{E66EB83D-9AF9-DA45-BDB5-8A8D1D4451B6}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{48C988E9-EC6F-564D-99BA-6CB5DCA85DD1}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{B96B6EE5-3083-DF44-B260-BF584A49DFAC}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{7A02BA87-D809-7D48-917D-3CFB536F9826}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{76B2C3B4-6951-074F-A129-57EB7DD7ACF2}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{DFAA2052-D1FB-1D44-91B6-CC918E6C3F17}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{F232BEE1-8E82-C447-8704-A8625E9411B2}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{3B7C40F6-166F-654C-8FD4-5C3BE14EB20D}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{EE483036-E207-2045-BE08-6F78AA1C2AAD}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{17F7CF71-27B0-4347-92D7-6FD4FC445096}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{6A2AE87A-FD8C-1F4D-9805-68502E4CE189}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{CEDADCFD-44E0-9847-B063-5BF1ACD2BEDF}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{10A3AFC2-3E60-814E-BEEA-EB538E6301A8}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{543E46D1-C752-AC42-8DCF-B2D34FFBF550}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{B9EECE55-29F5-1046-BB03-19117A9E96F8}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{9BA901DF-C9C0-6645-96D2-961117AE14A1}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{19DD3334-04D6-9B47-98E1-06D88603D68A}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{C3102DF0-428A-F141-8B38-A5E6CBC61C08}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{BA9681B1-6FE1-5A41-A666-13BEC071831B}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{8675DAAC-89A0-5A4A-BCF8-593F710ADB8F}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{F092B670-D96B-7141-9C45-FA6E16B0A132}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{76147BDB-C65A-1F45-8D8A-4080513A5620}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{8CD6E71F-0C1B-224D-9A71-0C6B110F6090}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{E661537A-7634-5141-9D45-BA722D4E3E53}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{D12C99B1-2E34-C14B-9DD0-CD2A3A89185D}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{192DFC45-F247-6E4F-9083-2360A6CD9706}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{E0D3176B-B1E4-074E-A9AE-654C9CCB8A63}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{D6EEDD55-0F8E-AE44-A364-6AE2E436C934}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{49FA1B98-7E90-6F46-BE39-5E4413589F5E}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{57973937-88DB-2C42-AA96-DD6ECC77A3DA}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{1EEB5347-8AD0-3F45-82E3-634C7F0B8E20}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{579BB736-91CA-674B-A86B-4F28131753FE}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{4C954135-6210-1942-9D93-119F7CDD2318}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{43F4B243-D433-5A48-8220-227271F36F8F}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{4082B2E4-616F-7F4B-966F-2B4940BD99EF}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{EE06306C-EEF1-DD4C-8170-E40CF3ADF6EA}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{EF55C071-E1C2-F047-9958-4EB8504DFB82}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{D35C6AF4-3A22-5041-946B-C41DD85614C5}"/>
+    <hyperlink ref="A61" r:id="rId61" display="https://www.jnj.com/health-and-wellness/science-of-baby-sleep-advertorial-ii" xr:uid="{92A43639-F3FF-1347-9D72-99704ABD23BA}"/>
+    <hyperlink ref="A62" r:id="rId62" display="https://www.jnj.com/our-company/science-of-baby-sleep-advertorial-ii" xr:uid="{83E663C6-992F-1146-9499-B8FF33677B8E}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{A1B93D62-9B11-4341-A578-A9CAE407F3D9}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{58AE4B07-4C52-D546-8882-CEE949A605EA}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{3F65CC5B-0B6D-8B43-85DC-EE03D9F7BC51}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{3542457A-55A0-1049-9D18-9BD209C1540B}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{84B54FB9-19BC-9D42-9C9A-B3EEE5A2D50F}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{35E53134-BAF3-7945-9EC0-29DE018282B4}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{ECC18F18-77A0-064B-B7DE-849463E0609A}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{F8A5262B-3379-D844-AD5C-4AF4FB663695}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{4936E10D-8FB8-7C45-A742-C9BE6DE28CE9}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{28E90023-C8B5-8040-92E8-9A69BAC074F2}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{C84B99DA-ED38-174E-827F-FF9219DBE620}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{A700B00B-C991-7648-A83F-866ED151AC7F}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{D3FD16F1-AA8E-5F4F-BB98-BFE382B55D61}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{DD29FAC9-803A-5A42-9C96-97FA326114B6}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{8644B927-B253-CA46-A9BE-CC85DEB291E3}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{9CAF74F4-AADA-4344-AD5F-62279B5C6449}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{749807DD-6CFC-3D44-B970-123FE930D123}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{C13A17BE-6486-624D-BA30-D87ACB8888A9}"/>
+    <hyperlink ref="A81" r:id="rId81" display="https://www.jnj.com/health-and-wellness/infant-massage-technique" xr:uid="{8982ECDA-681D-C747-AFFD-ACA3E92BE71D}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{466394C6-A589-CA42-BDAB-B6D8F1B7C018}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{D97A3EDB-8372-C54D-B0F6-611C31C18B65}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{E01CDC45-0461-F34D-B0B5-95E28DA9B07C}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{8DF89C00-1490-9F47-BBC0-8A792FA27975}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{FF7A3D63-4175-3D49-95C0-025BE7162E47}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{9C96DBA7-1469-9D4E-85AB-9F68D4A9656D}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{AAB4F7DE-C867-1342-ACF7-50CC30CE1977}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{16E5593A-DB82-A145-BBB0-9A4EA17A8428}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{D30F9876-714D-064A-8EF4-95606E9A57B6}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{28894376-827D-154F-8FD1-4742AC2AA76B}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{5D50704D-E67E-364B-8B3F-A24C021A6B2F}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{444639B4-398F-6046-B614-BECFD5FCDE78}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{085AEE9A-81F9-A049-BA98-8F11099AE018}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{80648004-C011-7244-BE0A-2F24DB6F3427}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{04920215-46E2-E444-B3D2-C2D9CA3072FC}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{3AFC47D7-4D15-F54A-AF1F-CC42094A1FAC}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{472C80B5-6C86-794F-9DCC-14A803891E0D}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{1022D61A-E311-0643-AC37-75E3A843E4CC}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{9481FE49-849D-8D45-B384-D811867A7EA8}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{51C99660-E61E-DE41-9919-4FD667F8CCBC}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{BDF8064A-1968-9A4B-B244-3ADA49ABCC9C}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{C712272B-CC1E-F742-8FAB-DF8A567645B6}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{C6243251-B1CD-1A44-BBE3-F30E923C5952}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{31BC6E38-7BAF-5E47-8774-967C72D9172B}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{C73FA1DA-E2C8-4A45-9B4B-8A49B503C025}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{497DDABF-2C70-6E44-8C57-2788423153BC}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{D5ECDA90-A824-CA43-BF3E-1A491E52FA8E}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{012AF16F-AC39-2147-BAD8-5C5E00B104D1}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{1D8DC34E-F8C0-0D44-970D-D4A3CEC7DFBE}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{95CC037C-83AA-3245-8928-9CCB00C8711D}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{38C27B6D-F884-9942-B01F-8639237FDFD8}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{68A0F0F4-4ACA-2D41-848F-32ED4CAC7F90}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{AEC7F5F4-D69B-BF42-BD79-4B01F9437462}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{52D0EA09-6989-9345-8B42-1D31820AAEEB}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{800087FA-2B01-6140-8628-F387D7E39ECE}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{18C6ABA8-67BC-764F-A544-EDAD6AAD832A}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{820FC0EE-50E4-564A-836E-699D2E7DA1B1}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{37F41179-E805-9240-AF46-E1AB81697B3B}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{47838975-ADF6-B24B-B1D2-569872EFBDFF}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{288F556A-BDB4-C74A-B05B-92A2272F3FCD}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{719E890E-576F-C044-A6DE-7A73EC427FB1}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{DAA69F4A-001F-8C43-B8D6-689C25967C67}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{FC7FDFF5-F276-634C-9DAF-F573ABF1D298}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{9F306BDD-768F-5347-A34E-54D2EFC09844}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{90E8EDE9-62CF-7147-809D-F5A36955A2E6}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{C3A3DBEE-08AF-0B4F-9C0C-41E81BB7F4E6}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{49D7744F-725B-7946-BAC9-2C5935E0E722}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{A952FBA3-B371-FD4A-AC91-90D447061F2F}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{43430C16-DE22-0343-9FEC-1575234BABB2}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{8E2CB0D0-5F73-C045-9EA7-31C8F0E45D61}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{EF0719E7-00FE-C945-9F78-B289CBB3BBD5}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{C2A62E42-DE3A-BE4B-B3B0-91B67C86260C}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{F3AC55C4-9339-9049-9787-81C73F611948}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{DCC76560-FE41-9248-850A-9C8FFD8189D6}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{244828FC-CEB5-E24C-B919-37EC676BAC9F}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{1599B04F-876F-CA41-8F11-FB087DA59325}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{1F84F65D-95B0-4940-9074-F18F7A4FCF06}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{80D65C1B-5FFD-A447-AD30-8659EA531226}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{27887DC2-A8E4-D542-AD22-E3ADCF1D1D3F}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{2D305FA9-FC63-C249-B7AD-5FD932375B14}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{4B5B5809-ECD2-F543-AF83-FC846C5BD0CD}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{337929D4-4C7A-1E4E-AA6A-38382C84FC0C}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{6CC160D1-58B0-5A4F-B83E-EE921E4A673D}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{C6804590-EF18-4E49-94FB-C568AA012416}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{7722FA78-7D66-DB41-B0AB-E9B1DDE14489}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{5B913DBD-F15A-2F4B-BBC8-E214BA0E5CEB}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{2A05B8CD-2DD7-3949-A84F-F20B9E95585D}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{92C8ADAA-66C5-A541-9A9D-AB0E324D4EC3}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{85F9364B-58F7-AA4B-96FF-DFB010229A73}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{263D44ED-4CF3-0F44-A000-CE78A00C0D10}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{73EDD6A8-3BDB-0647-B811-200E250ECFD7}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{09BEB573-74FC-8D48-BC0A-FF07F2533F20}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{940C8C65-F18F-3449-9A4E-198483BA443F}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{A34D6CE6-522E-FD4E-A244-3CDA8DBB5ADA}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{F375E1B5-E5B8-6C4D-B45A-19738DAF9E76}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{1F9750FB-996E-F24F-B5AC-B2BE495120F0}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{B7C1A7B4-20ED-2E48-9311-F7A76AB391F4}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{63202856-CA96-614F-B02F-3E4B2CF94EE6}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{73EDC9DE-BE7E-DC46-8049-3BA2B27E1899}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{E2EF381F-0A9F-3947-A051-1DEE4FCA6AD1}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{6A8A1D3B-832E-984D-915E-43915A0F0253}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{27D98684-CB8E-C345-8C8F-27F25291E168}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{3F832584-8D10-1846-B5C4-372BC60ABA5E}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{8A9C174E-4294-3F42-B0B8-FD8543CF433C}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{7DB5BEC6-75F8-D642-BA9D-4F0A69921B21}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{FB086BA6-BEE2-7C4D-9127-57A9C0E41370}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{F56F32B4-6E85-C141-841B-D9739AFE693D}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{79EC61B9-E5B6-D140-8EAC-6A685F2BC9B3}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{1EE626F7-0D29-FB48-8D21-E5BA44DB7BF8}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{562BE741-D494-3143-91EB-65E7E3B4B678}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{35A73D92-4434-A948-8E84-7162B1E94EF2}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{6545E040-472B-EA4A-A9C9-0008FEE885E4}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{59A2C7F8-728C-C14D-BA9D-8F5BD9397682}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{88CD7D81-B2A1-174D-A199-9F2200556B1F}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{FED46A8B-5076-334F-937F-5EADBF357E53}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{329B5E36-3DEF-6741-BEE2-F09CAE330AE6}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{9B4ED360-9508-8848-8DBA-885FFD9EC907}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{FE0E7566-7DB4-F148-A9ED-88027A018E34}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{C5995C5D-FD83-A548-84D2-2B283D760D03}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{A9151324-5D68-804A-B7A1-9AEA54D038BC}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{1596864A-93D4-3241-BBD4-5548B6C30A5E}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{491492B7-C230-BD4E-947E-3E8FDD5EFA49}"/>
+    <hyperlink ref="A184" r:id="rId184" display="https://www.jnj.com/" xr:uid="{5FCAA5B6-46E4-F34B-B643-E0FAF72597FD}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{05B502AA-6B1E-AB4D-A423-3629C7286B56}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{3E75EFC9-9008-0C4A-A9C6-6DED53F0FD54}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{14CFE79E-D559-3E4D-BC66-2B39C58BB5D7}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{4AAF223B-8812-5943-996F-2DC746A6FDDB}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{EC3EB81B-8FC1-AF42-954A-5CBC507A67E8}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{EE438658-716A-E546-9C1E-7253A1C13E46}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{B166BF9D-0113-0548-85B2-80C725CE5F16}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{E9F81AF1-166A-8E48-9CBB-293189F186DF}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{B3B3817E-A1AB-1442-BEE6-67A592B09524}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{AE21C9EF-2F1A-0B4B-8808-EEAADB31F6D1}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{93BE3281-826B-FA49-A2E0-896FE6D06DC4}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{71EC3026-E496-9C48-9A7C-6723CDB1ED71}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{CCE2FB32-B343-3945-A7AC-A963D89F527C}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{6DE0A91C-E49F-324A-BAA0-65AD934EA685}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{0E9EC527-B8FF-4747-A6F4-F8521680F10D}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{7E4EEB17-4FCF-B144-BBF6-B233C7CEB9F0}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{2EC02AF2-A76B-2B4E-9829-E3EE280BBD2F}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{495698A8-6D93-AE42-A896-28E8D212BE08}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{310C776B-F119-FF42-AC84-76393A1FD952}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{09E74BA2-2396-E347-B810-958C308F6109}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{7A4A4430-ADF6-CA41-A2BE-01A05A4E1B36}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{DD9AB06A-122B-9C40-A13B-B73E985A5A75}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{8C8795B4-4CB1-A541-B832-C5AA17D7FC9B}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{1047CC67-413C-BD42-B65B-DA9152EA2A19}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{23A35176-F5A1-1E4F-94DB-E69685C5DF29}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{FAF45AFB-1E63-6740-BA73-3571B2539532}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{67B3A389-31FE-1A46-84E7-062D3F96B8A2}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{19C7511D-1255-DF48-995A-5482965AD115}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{1D81CE4D-642D-3F44-98E0-692783AEDE1F}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{14BCC150-2AC6-1B44-8CB5-45CA8904DE68}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{FF9D4A40-0914-984D-8DFB-5C454BE4767B}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{9B5696F5-4FB2-6349-A3AB-F3EE55166218}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{BC2C62E9-BFAF-014B-90B2-792F459920BF}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{5DA4275C-6B23-5A4F-B728-5ED7059FC1ED}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{D865AC70-722C-4C47-8097-131D09CCBF7D}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{B54A42FF-94BD-B840-B0FF-DE417C27F1D7}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{874AB889-5E89-C949-9A92-EEBC9847BC2B}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{0EA5D42B-5474-6D46-BD37-2674E37341A7}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{E9E79CB4-D91D-CF44-B149-492DE1F4EC42}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{A41B819C-BE5F-0E41-AA64-A79549262EE8}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{F2BB1533-4B9F-3648-8CFE-12CCD20B56A1}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{A86378AB-3B5E-4F47-8C1C-0FA11A84DE53}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{B291C6B9-AD44-5747-B80D-B3FFED9DF3B2}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{92304FAB-62AE-8942-81F7-9888960E4884}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{24307D19-11A5-FE4E-AD8C-3D14D31A3A5C}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{FD21C47D-0C53-2245-8641-6247600D909C}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{51B0547F-98D3-864F-8E0C-D8C753EE2B8E}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{00069A08-D559-9044-A7D1-1C12A03E077A}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{5427A5B1-7118-994D-A3A3-E849F67B1224}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{594CB173-3D04-EF4E-B153-1F1C0307AAEC}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{8F461BA4-E6B0-7D4E-A143-1948C3AF224E}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{E80BAE80-5C69-F44B-BD16-1FDB2CF7634C}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{9A25B6C8-ADA4-4F4B-8724-4E910C3265B6}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{12FECEC5-03D8-254A-A8B9-906893EA2CF7}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{52BE7C19-0654-6A41-927F-F544588F1A71}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{B308EF6B-4582-134A-809F-F34F4D79F6E5}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{E9C6B812-5DFD-4244-9220-F87F66AA6874}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{B984EC3F-AED0-D64C-A87B-08A08C90B2E2}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{4145F2C0-BF9C-BA4B-8492-D3F80299348C}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{1B8DBA65-265B-8243-ACAA-676C3A49ECBE}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{BD08288D-F086-F94B-A82B-81FCCD5335D0}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{6DBA452E-C5B3-2649-80F5-CA6378D7E4B4}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{B4B431BF-90C5-5640-9920-84C1F70DD776}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{1BDCCA72-D307-ED41-8B6C-AEA778F47CB3}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{EEB6DC7C-2A97-DB43-9BD4-051431D3006C}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{378E6842-ECA6-6941-96DF-6658723D6281}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{954D197D-30E6-8F48-BB37-4CE1C6308CD9}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{3D6912E6-4D14-9748-839F-7695343F4695}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{5A040C07-5F68-504E-A7FB-DBBA6C22C0B8}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{12DB36FD-0491-174E-970C-A00AC82F9D9B}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{D698743A-BB8B-0A4D-A76E-E6F66065412D}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{E59FABBB-5A78-7348-8A1C-0A31CAA8B24D}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{97F2947B-FE33-434D-A65F-0B1E0F273210}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{005A3C75-ABCB-5749-A8DF-AD72FFF54D83}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{80D5E525-3B55-CC49-9BC8-2A3F9CC1C8EB}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{56B96E82-00F9-A947-909A-3C3C839B36E4}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{92A704D7-36D5-C14C-8F29-F48F44F5930E}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{EBBBABE7-84CB-5147-8557-7AC6BABF8008}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{ACD0CDBE-7FC1-C84E-921F-6CC556439C05}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{41CE2613-CA63-544F-AB40-E96E847A6C3A}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{1C65178E-68EA-6349-8300-04724D59E997}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{B8DB35F1-FB39-C444-AA7E-DB6192E76BC8}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{F9109856-56F2-5948-A686-F2B6DDC4091B}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{6BCFE279-E2FC-1044-B1CE-19A545612C09}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{7101FCAB-0506-204B-A3F9-10ADBBFD3D51}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{24B833EB-6F13-4D4D-B78F-B013F8BBD785}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{D2B37978-B54D-5D4D-8E04-8393E138EEEC}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{6CC1E2EE-30D4-D24C-9499-AB30F3943F95}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{00F78B5D-DC2F-024A-84EE-97576E01B3A3}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{BE52DD55-3748-C84C-80EC-423B12ADBF42}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{064A406A-3E6F-EC4A-BF2E-173AF0FE87E8}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{3FC68C5C-D78E-E64E-8992-D201489F9513}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{0C2BFCDF-47EB-284C-8304-99B1138289E9}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{AD26139F-A158-4447-A364-411D074F5EE6}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{42E1D5FE-57D2-A746-9FD7-11860AE6F105}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{72CEBB15-F31F-B44A-85F5-8E4F2D1509E0}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{B8CCC4EC-3D36-A34D-B8BF-ECE0C00B3253}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{4FF56C11-424C-C74F-B954-EA762CABFE75}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{19195595-C543-5944-AB7F-7D4A49AC8F9A}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{5FA2E21A-2C3D-9A4A-A6E8-B2D6253B06F4}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{86308E2E-AA3D-BF46-84C6-B904198E772F}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{196A36E9-3F92-DF4C-ACE4-CBB560D3B428}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{E62F3764-798E-D04D-AC75-A7820DFFE2D2}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{CAA27854-30B8-D54B-B8F4-A91119A3D98F}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{03DF6070-8373-5344-9663-3FBFB46A6A6C}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{C1B7F2F6-2A48-9A4D-A7F3-C4F1C5723260}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{898A27CC-EED5-BF42-9707-9693B3C7516D}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{4AAC3F14-9A7A-6845-8E80-C827809CB46E}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{E12D6B85-4403-7C42-A11D-5F98FC52A5E5}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{6DFC3CC5-6411-D846-ADF0-843CE6B9BD0B}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{1C0AC2E0-14BE-534C-BDF9-7F22F1C56B5E}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{0CD2E914-B167-1747-A4C5-383E3F236FB1}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{9A7A992E-A21A-1243-957B-DFD4A7C5A59D}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{EBE9122C-B38C-204F-A796-178F79C63CC9}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{4D59D6AC-0F83-D240-AC30-5A50E7901EF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Redesign-Redirects.xlsx
+++ b/Redesign-Redirects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampanda/Samshub/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F947668C-3BFA-DE42-B5E7-71218F60143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23802AC0-E142-D841-9089-8939C14F1C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="3220" windowWidth="32260" windowHeight="23640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage-0" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7092" uniqueCount="2444">
   <si>
     <t xml:space="preserve">Name of article </t>
   </si>
@@ -7464,72 +7464,6 @@
   </si>
   <si>
     <t>https://www.jnj.com/2011/10/drive-safely-work-week-and-btw-behind-the-wheel</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/icm-research-premieres-the-importance-of-sleep-on-social-emotional-development</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/icm-research-premieres-the-importance-of-sleep-on-social-emotional-development</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/icm-research-premieres-sleep-in-young-children-around-the-world</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/icm-research-premieres-sleep-in-young-children-around-the-world</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-prevention-and-management-of-bleeding-after-birth</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-prevention-and-management-of-bleeding-after-birth</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-5</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-5</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-building-teams</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-building-teams</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-lead-in-clinical-skills</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-lead-in-clinical-skills</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-2</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-2</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/caring-and-giving/midwives-video-1</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/midwives-video-1</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/new-ideas/building-the-confidence-of-a-new-generation-of-midwives-on-the-front-lines-of-care</t>
-  </si>
-  <si>
-    <t>https://upgrade.qa4.jnj.psdops.com/our-company/building-the-confidence-of-a-new-generation-of-midwives-on-the-front-lines-of-care</t>
   </si>
   <si>
     <t>https://www.jnj.com/caring-and-giving/midwives-lead-in-building-teams</t>
@@ -7885,160 +7819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806BCDE-C70F-6D4A-BF69-E1B69B9EF7F2}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://upgrade.qa4.jnj.psdops.com/cour-company/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory" xr:uid="{7950B623-1E77-0D4C-A004-7CCB7B5C4BCE}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://upgrade.qa4.jnj.psdops.com/ccaring-and-giving/johnsons-first-touch-infant-massage-event-a-guinness-world-records-victory" xr:uid="{08D726AB-6481-D44C-A807-DDF8DFB682F7}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://upgrade.qa4.jnj.psdops.com/ccaring-and-giving/seeking-todays-midwifery-pioneers-for-johnson-johnsons-genh-challenge" xr:uid="{4BB29CBF-AD0C-8B4B-BBBC-AD9D003311BD}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{B613A96D-3233-B346-BEAD-16F77CBA0DBC}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{EA07F56D-2518-4D4C-8962-403A8046FC48}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{2EA9CC32-6148-2340-A8A2-0321626C8EEC}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{664564DB-3D44-104C-BC51-1EB9420897A0}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{8248E9F5-5511-1E46-B329-597480741C87}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{02134FB0-DFF2-F34A-B844-7F53E0C3D700}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{15725C8C-6E51-FD40-A6A6-5BE8A0F66CF7}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{253B5697-B5C4-E64A-8DAE-64F75F7BAF22}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{1D6C8FBB-4A55-DA4B-B835-567DC293283B}"/>
-    <hyperlink ref="A13" r:id="rId13" xr:uid="{2942D65C-F154-5844-8521-CC9713D004EA}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{42A8D5A2-FBEE-B640-A25F-1DE49FE5CB30}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{7E878D56-BEE6-A54A-96B5-A8563AE4A156}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{286AF3FD-1B34-0341-854E-25BFDD20014F}"/>
-    <hyperlink ref="A17" r:id="rId17" xr:uid="{6876B8D8-4AA9-954F-82F5-3A96EB19DC94}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{16A4CB0D-44ED-B748-BDE2-9EDB27BA9D01}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{C283C5B5-43CB-2846-8141-9FE9926AA091}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{B5E6B9D0-3798-F644-A092-CBC5DB3EDB4A}"/>
-    <hyperlink ref="A21" r:id="rId21" xr:uid="{539BBEAF-D26B-B24F-9230-FF7391ABBBBE}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{C2CC9794-2F6B-1941-9446-588CE12C6EDA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62447A-6D9F-DD47-A3BC-B618ADF8CB98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2BFB8D-47AB-4E44-B28F-601BB38A8F99}">
   <dimension ref="A1:A300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8097,6 +7882,956 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="9"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="9"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="9"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="9"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="9"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="9"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="9"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="9"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="9"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="9"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="9"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="9"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="9"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="9"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="9"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="9"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="9"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="9"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="9"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="9"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="9"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="9"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="9"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="9"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="9"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="9"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="9"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="9"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="9"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="9"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="9"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="9"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="9"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="9"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="9"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="9"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="9"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="9"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="9"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="9"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="9"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="9"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="9"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="9"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="9"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="9"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="9"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="9"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="9"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="9"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="9"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="9"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="9"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="9"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="9"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="9"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="9"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="9"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="9"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="9"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="9"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="9"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="9"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="9"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="9"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="9"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="9"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="9"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="9"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="9"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="9"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="9"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="9"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="9"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="9"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="9"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="9"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="9"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="9"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="9"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="9"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="9"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="9"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="9"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="9"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="9"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="9"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="9"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="9"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="9"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="9"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="9"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="9"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="9"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="9"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="9"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="9"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="9"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="9"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="9"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="9"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="9"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="9"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="9"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="9"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="9"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="9"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="9"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="9"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="9"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="9"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="9"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="9"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="9"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="9"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="9"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="9"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="9"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="9"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="9"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="9"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="9"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="9"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="9"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="9"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="9"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="9"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="9"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="9"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="9"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="9"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="9"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="9"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="9"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="9"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="9"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="9"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="9"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="9"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="9"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="9"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="9"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="9"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="9"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="9"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="9"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="9"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="9"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="9"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="9"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="9"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="9"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="9"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="9"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="9"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="9"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="9"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="9"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="9"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="9"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="9"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="9"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="9"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="9"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="9"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="9"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="9"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="9"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="9"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="9"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="9"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="9"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="9"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="9"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="9"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="9"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="9"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="9"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="9"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="9"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="9"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="9"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="9"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="9"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="9"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="9"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="9"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="9"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="9"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="9"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="9"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="9"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="9"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="9"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="9"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="9"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="9"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="9"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="9"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="9"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="9"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="9"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="9"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="9"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{CD93644A-E5A6-024D-8891-D4268023C180}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7B46CF00-7058-764C-ADA5-BC3BF1729BB8}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{F09BCE01-9BF9-AB49-9B6E-BAC69F63F074}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{2EEA14F5-8F8E-3748-800A-785E866C392E}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{ED6744D1-2E31-4349-9B67-B509C8B45DC3}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{B0164AD7-23A2-FC4B-AD5A-15C1C2A707D4}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{4642DB04-0726-DB4D-A76A-39874ADEF17A}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{0AA588E9-C54B-0143-89C7-EFDA53353888}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{11D43C14-6D66-8E4E-B20C-576834224A80}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{5FDCC4A1-2A77-1548-A805-D4B7D3865348}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62447A-6D9F-DD47-A3BC-B618ADF8CB98}">
+  <dimension ref="A1:A300"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="105.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +8843,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>2464</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -8963,7 +9698,7 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
-        <v>2465</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
@@ -9854,8 +10589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CFE30-8DC9-8646-B751-1CC2599DD0A8}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17122,7 +17857,7 @@
   <dimension ref="A1:A270"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+      <selection activeCell="X217" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Redesign-Redirects.xlsx
+++ b/Redesign-Redirects.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sampanda/Samshub/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23802AC0-E142-D841-9089-8939C14F1C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED6D55-A488-7348-B9D3-12B3CFD74A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31680" windowHeight="21280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Homepage-0" sheetId="8" r:id="rId1"/>
-    <sheet name="Homepage-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Homepage-2" sheetId="3" r:id="rId3"/>
-    <sheet name="Homepage-3" sheetId="4" r:id="rId4"/>
-    <sheet name="Homepage-4" sheetId="5" r:id="rId5"/>
-    <sheet name="Homepage-5" sheetId="6" r:id="rId6"/>
-    <sheet name="Homepage-6" sheetId="7" r:id="rId7"/>
-    <sheet name="JNJ OUR COMPANYPRODUCT URL CLEA" sheetId="1" r:id="rId8"/>
+    <sheet name="Homepage-1" sheetId="2" r:id="rId1"/>
+    <sheet name="Homepage-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Homepage-3" sheetId="4" r:id="rId3"/>
+    <sheet name="Homepage-4" sheetId="5" r:id="rId4"/>
+    <sheet name="Homepage-5" sheetId="6" r:id="rId5"/>
+    <sheet name="Homepage-6" sheetId="7" r:id="rId6"/>
+    <sheet name="JNJ OUR COMPANYPRODUCT URL CLEA" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7092" uniqueCount="2444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="2444">
   <si>
     <t xml:space="preserve">Name of article </t>
   </si>
@@ -7819,960 +7818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2BFB8D-47AB-4E44-B28F-601BB38A8F99}">
-  <dimension ref="A1:A300"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="105.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="9"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="9"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="9"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="9"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="9"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="9"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="9"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="9"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="9"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="9"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="9"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="9"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="9"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="9"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="9"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="9"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="9"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="9"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="9"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="9"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="9"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="9"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="9"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="9"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="9"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="9"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="9"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="9"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="9"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="9"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="9"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="9"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="9"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="9"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="9"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="9"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="9"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="9"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="9"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="9"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="9"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="9"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="9"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="9"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="9"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="9"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="9"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="9"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="9"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="9"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="9"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="9"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="9"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="9"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="9"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="9"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="9"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="9"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="9"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="9"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="9"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="9"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="9"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="9"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="9"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="9"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="9"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="9"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="9"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="9"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="9"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="9"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="9"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="9"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="9"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="9"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="9"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="9"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="9"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="9"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="9"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="9"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="9"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="9"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="9"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="9"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="9"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="9"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="9"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="9"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="9"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="9"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="9"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="9"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="9"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="9"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="9"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="9"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="9"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="9"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="9"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="9"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="9"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="9"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" s="9"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" s="9"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" s="9"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" s="9"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" s="9"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" s="9"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" s="9"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" s="9"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" s="9"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" s="9"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" s="9"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" s="9"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" s="9"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" s="9"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" s="9"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" s="9"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" s="9"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" s="9"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" s="9"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" s="9"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" s="9"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" s="9"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" s="9"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" s="9"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" s="9"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" s="9"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" s="9"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" s="9"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" s="9"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" s="9"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" s="9"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" s="9"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" s="9"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" s="9"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" s="9"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" s="9"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" s="9"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" s="9"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" s="9"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" s="9"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" s="9"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" s="9"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" s="9"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" s="9"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" s="9"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" s="9"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" s="9"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" s="9"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" s="9"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" s="9"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" s="9"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" s="9"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" s="9"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" s="9"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" s="9"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" s="9"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" s="9"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" s="9"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" s="9"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" s="9"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" s="9"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" s="9"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" s="9"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" s="9"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" s="9"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" s="9"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" s="9"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" s="9"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" s="9"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" s="9"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" s="9"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" s="9"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" s="9"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" s="9"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" s="9"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" s="9"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" s="9"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" s="9"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" s="9"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" s="9"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" s="9"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" s="9"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="9"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="9"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="9"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="9"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="9"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="9"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="9"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="9"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="9"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{CD93644A-E5A6-024D-8891-D4268023C180}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{7B46CF00-7058-764C-ADA5-BC3BF1729BB8}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F09BCE01-9BF9-AB49-9B6E-BAC69F63F074}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{2EEA14F5-8F8E-3748-800A-785E866C392E}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{ED6744D1-2E31-4349-9B67-B509C8B45DC3}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{B0164AD7-23A2-FC4B-AD5A-15C1C2A707D4}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{4642DB04-0726-DB4D-A76A-39874ADEF17A}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{0AA588E9-C54B-0143-89C7-EFDA53353888}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{11D43C14-6D66-8E4E-B20C-576834224A80}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{5FDCC4A1-2A77-1548-A805-D4B7D3865348}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A62447A-6D9F-DD47-A3BC-B618ADF8CB98}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A285" workbookViewId="0">
       <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
@@ -10585,11 +9634,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CFE30-8DC9-8646-B751-1CC2599DD0A8}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A259" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -12401,11 +11450,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63C1F6-382A-F642-87F9-93CF1775AA78}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A207" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -14218,7 +13267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0729FA2-658E-714E-BD63-184CECA54729}">
   <dimension ref="A1:A300"/>
   <sheetViews>
@@ -16035,7 +15084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F5E08C-0CC4-DF40-8568-D02DC4F72694}">
   <dimension ref="A1:A300"/>
   <sheetViews>
@@ -17852,15 +16901,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ABC0E-71DA-C24A-A601-CE49653F1796}">
-  <dimension ref="A1:A270"/>
+  <dimension ref="A1:A267"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="X217" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="126.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -18484,731 +17536,716 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>1053</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>1054</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>1055</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>2253</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>2254</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>2314</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
-        <v>2397</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>2432</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" s="4" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
         <v>2439</v>
       </c>
     </row>
@@ -19338,158 +18375,155 @@
     <hyperlink ref="A122" r:id="rId122" xr:uid="{DD6F696E-AEFA-7D43-B9A3-FA00CAFFDC6F}"/>
     <hyperlink ref="A123" r:id="rId123" xr:uid="{8D9ABDD9-8D5D-634F-A99E-C5682B376EF5}"/>
     <hyperlink ref="A124" r:id="rId124" xr:uid="{3656A3AD-32C7-D94E-A003-F0349E3FEDF7}"/>
-    <hyperlink ref="A125" r:id="rId125" xr:uid="{8CD08AD2-D2A8-0848-96E7-7E04E09A9DD1}"/>
-    <hyperlink ref="A126" r:id="rId126" xr:uid="{9A4B6EDA-774B-B54D-A914-4147FBEBE5E0}"/>
-    <hyperlink ref="A127" r:id="rId127" xr:uid="{8D796A46-86DF-934D-A2CA-5FFE9DF94682}"/>
-    <hyperlink ref="A128" r:id="rId128" xr:uid="{43CF84D5-0469-E343-9994-8169CA64BA9C}"/>
-    <hyperlink ref="A129" r:id="rId129" xr:uid="{C23D1F80-C381-B841-A8A1-2CC5DFD5F3D3}"/>
-    <hyperlink ref="A130" r:id="rId130" xr:uid="{2444B9A3-8449-C946-B3B5-E4C6AF7AE7D6}"/>
-    <hyperlink ref="A131" r:id="rId131" xr:uid="{64A57281-30DB-6246-BF27-C712C5CA5EBE}"/>
-    <hyperlink ref="A132" r:id="rId132" xr:uid="{4A2EB155-A84C-C54B-8674-3C8E49A2EA67}"/>
-    <hyperlink ref="A133" r:id="rId133" xr:uid="{4CE353F6-480F-9540-B15F-BDD2783FFF2B}"/>
-    <hyperlink ref="A134" r:id="rId134" xr:uid="{CBF3C27E-1826-954D-8E48-9B5BCFA31E08}"/>
-    <hyperlink ref="A135" r:id="rId135" xr:uid="{4C5C94DE-32E1-1C41-ADB8-A2FBF71143F9}"/>
-    <hyperlink ref="A136" r:id="rId136" xr:uid="{ED77BB1A-9E08-EB45-B147-A10D0651FB6E}"/>
-    <hyperlink ref="A137" r:id="rId137" xr:uid="{871748FF-4C47-2943-8C64-4948D2E61E68}"/>
-    <hyperlink ref="A138" r:id="rId138" xr:uid="{CD9A6AA8-19BB-0040-BD96-DE5B25952538}"/>
-    <hyperlink ref="A139" r:id="rId139" xr:uid="{7CD1970F-CF55-B94F-AA51-D32511853502}"/>
-    <hyperlink ref="A140" r:id="rId140" xr:uid="{5B3D19A9-8B6F-CB4C-9AB3-7558BAFE2B25}"/>
-    <hyperlink ref="A141" r:id="rId141" xr:uid="{EF1DD75B-A11C-D24A-82AF-63FB93408CEA}"/>
-    <hyperlink ref="A142" r:id="rId142" xr:uid="{B1CED060-AA86-A543-AB67-6E553660DCF0}"/>
-    <hyperlink ref="A143" r:id="rId143" xr:uid="{FE1CD0E2-C168-CE47-B4A5-17FD60A0E8A6}"/>
-    <hyperlink ref="A144" r:id="rId144" xr:uid="{E151DCAA-D54A-A34F-8492-6FD5A4E110EB}"/>
-    <hyperlink ref="A145" r:id="rId145" xr:uid="{4BF4BFFB-BFA1-4C42-9CB7-6EF724667CD3}"/>
-    <hyperlink ref="A146" r:id="rId146" xr:uid="{B27D089C-15F3-4E40-93C7-43587D260AA1}"/>
-    <hyperlink ref="A147" r:id="rId147" xr:uid="{13075B7B-425E-DB41-BD0E-A9AFA888A2C1}"/>
-    <hyperlink ref="A148" r:id="rId148" xr:uid="{90A365BA-1B76-D449-9956-A7FF38CA7E97}"/>
-    <hyperlink ref="A149" r:id="rId149" xr:uid="{545A4385-6EEE-614E-A094-C51E3469E7F6}"/>
-    <hyperlink ref="A150" r:id="rId150" xr:uid="{D4B43F7F-A8FB-F542-8701-59A373109D6E}"/>
-    <hyperlink ref="A151" r:id="rId151" xr:uid="{E6F8BE0B-5173-8F46-9977-08C49FC198CC}"/>
-    <hyperlink ref="A152" r:id="rId152" xr:uid="{8B965D12-34F6-454C-8DEB-484048172E66}"/>
-    <hyperlink ref="A153" r:id="rId153" xr:uid="{B6823E5C-0B1D-0B40-913A-53609E9575FE}"/>
-    <hyperlink ref="A154" r:id="rId154" xr:uid="{1DE0650F-86B7-F845-A8EC-50037A436127}"/>
-    <hyperlink ref="A155" r:id="rId155" xr:uid="{8883F87B-B7E8-3442-AC0E-78E5E482FEB2}"/>
-    <hyperlink ref="A156" r:id="rId156" xr:uid="{A2572AA2-848B-2745-8C3B-5CC205D19641}"/>
-    <hyperlink ref="A157" r:id="rId157" xr:uid="{6C6744D9-B8E9-2C4C-8589-196C6BF2D5E5}"/>
-    <hyperlink ref="A158" r:id="rId158" xr:uid="{DCBE8BC1-4696-144C-AC99-90FBBB80F45E}"/>
-    <hyperlink ref="A159" r:id="rId159" xr:uid="{CEC05240-2382-B54B-9AD7-FE27655139F9}"/>
-    <hyperlink ref="A160" r:id="rId160" xr:uid="{A5251266-5D55-2544-94F4-EA3DAD18B30E}"/>
-    <hyperlink ref="A161" r:id="rId161" xr:uid="{C0104702-E7D1-7846-869D-6D60E906D907}"/>
-    <hyperlink ref="A162" r:id="rId162" xr:uid="{561BE00D-F7D8-FC49-8444-FEBC64764FD9}"/>
-    <hyperlink ref="A163" r:id="rId163" xr:uid="{AA02CAE1-75D9-3E42-B30F-A634B26A998D}"/>
-    <hyperlink ref="A164" r:id="rId164" xr:uid="{B79A3596-90E1-3348-9D6D-0A2146F5C97F}"/>
-    <hyperlink ref="A165" r:id="rId165" xr:uid="{6CB03193-7301-BD46-A8BE-F6F8FF9FD1F2}"/>
-    <hyperlink ref="A166" r:id="rId166" xr:uid="{26FF1C0C-88B4-2444-9DE1-BDA93BE0DC21}"/>
-    <hyperlink ref="A167" r:id="rId167" xr:uid="{1261B7AD-6EEF-FA45-8A4A-A4F17D2B8421}"/>
-    <hyperlink ref="A168" r:id="rId168" xr:uid="{234E8BAE-E68B-474E-9885-368948912457}"/>
-    <hyperlink ref="A169" r:id="rId169" xr:uid="{D4945377-E48E-D54B-97EC-C3A4B303EA5A}"/>
-    <hyperlink ref="A170" r:id="rId170" xr:uid="{53F054A4-681E-2F4B-B62C-E797DD9742F1}"/>
-    <hyperlink ref="A171" r:id="rId171" xr:uid="{5FF0CE08-BEA7-9B47-9CB9-D79E463EE67D}"/>
-    <hyperlink ref="A172" r:id="rId172" xr:uid="{9C41982C-30C0-E44F-94C7-41C5F6C667F2}"/>
-    <hyperlink ref="A173" r:id="rId173" xr:uid="{45CDA606-3E25-5246-B064-83CB1CE897F9}"/>
-    <hyperlink ref="A174" r:id="rId174" xr:uid="{66B8D53F-BA43-C34D-850C-89C9BA6CBF3A}"/>
-    <hyperlink ref="A175" r:id="rId175" xr:uid="{E70D5015-68CA-F745-B6A3-718A3AED4C3F}"/>
-    <hyperlink ref="A176" r:id="rId176" xr:uid="{143A5153-9C90-4C4A-98D6-377A7C7823E6}"/>
-    <hyperlink ref="A177" r:id="rId177" xr:uid="{377A593A-66AE-B147-AD6F-FC2424F6C722}"/>
-    <hyperlink ref="A178" r:id="rId178" xr:uid="{DE5F3D95-9B10-4C4F-ACB6-00D167CE8BD3}"/>
-    <hyperlink ref="A179" r:id="rId179" xr:uid="{DC857D2D-3097-944D-A1F1-2E9CA1940F2E}"/>
-    <hyperlink ref="A180" r:id="rId180" xr:uid="{38CE3C9D-3195-A344-BE56-C80904E459D9}"/>
-    <hyperlink ref="A181" r:id="rId181" xr:uid="{1F265E26-E372-F545-9586-95D236A44422}"/>
-    <hyperlink ref="A182" r:id="rId182" xr:uid="{02B00F99-7259-9549-966A-DBCA6774A5A1}"/>
-    <hyperlink ref="A183" r:id="rId183" xr:uid="{6C996963-BBF1-9D4B-9524-5ECA8AA86ABD}"/>
-    <hyperlink ref="A184" r:id="rId184" xr:uid="{C7709FEC-E79F-904F-83BA-B5B2D8BFB797}"/>
-    <hyperlink ref="A185" r:id="rId185" xr:uid="{4E99D51F-EB29-6141-B00D-10D0D68D5664}"/>
-    <hyperlink ref="A186" r:id="rId186" xr:uid="{6F9C07D2-4213-6D4D-8A4D-EE30DCDDB085}"/>
-    <hyperlink ref="A187" r:id="rId187" xr:uid="{02BD1FD6-85EC-304D-A3EF-912223B3D3B9}"/>
-    <hyperlink ref="A188" r:id="rId188" xr:uid="{FA0A6533-4D97-7A41-9D6B-6F42FA8B278B}"/>
-    <hyperlink ref="A189" r:id="rId189" xr:uid="{A26B9C32-14F4-8947-9103-5150C02831D7}"/>
-    <hyperlink ref="A190" r:id="rId190" xr:uid="{AE125B6A-6B49-7C4A-96E9-B6617E97CCC9}"/>
-    <hyperlink ref="A191" r:id="rId191" xr:uid="{B7C8C160-062F-CF49-B79C-49AE862E384F}"/>
-    <hyperlink ref="A192" r:id="rId192" xr:uid="{864905D7-5DD3-834B-B0D2-8E99D9ACE1CE}"/>
-    <hyperlink ref="A193" r:id="rId193" xr:uid="{A4208BFB-EEC0-9D42-B701-5168FA0E70B6}"/>
-    <hyperlink ref="A194" r:id="rId194" xr:uid="{A8548243-D6E3-9345-9F1E-60D9BE73D3AF}"/>
-    <hyperlink ref="A195" r:id="rId195" xr:uid="{E39BF1B3-D42A-0B44-83A7-C6B99B9432F0}"/>
-    <hyperlink ref="A196" r:id="rId196" xr:uid="{86807DD1-A847-4146-8A1F-3553FA25999E}"/>
-    <hyperlink ref="A197" r:id="rId197" xr:uid="{23574F31-648E-4344-8386-120463AA41C3}"/>
-    <hyperlink ref="A198" r:id="rId198" xr:uid="{B662A1B6-DB71-7543-B0C3-EDAEB5E898EA}"/>
-    <hyperlink ref="A199" r:id="rId199" xr:uid="{6F283435-2B29-3E48-BAD7-09C8EFA778C0}"/>
-    <hyperlink ref="A200" r:id="rId200" xr:uid="{64E28DAD-D20E-6A4A-B791-C2C5F61C97F7}"/>
-    <hyperlink ref="A201" r:id="rId201" xr:uid="{D2192D39-8FE4-294B-9BAA-6354AAF827C1}"/>
-    <hyperlink ref="A202" r:id="rId202" xr:uid="{026FD04C-DFFE-7446-BE19-7C692A5E7D45}"/>
-    <hyperlink ref="A203" r:id="rId203" xr:uid="{4B6827E9-5133-534F-A378-33B74C97B9E8}"/>
-    <hyperlink ref="A204" r:id="rId204" xr:uid="{905A9DFC-542E-3746-88AA-0613D26AEB4A}"/>
-    <hyperlink ref="A205" r:id="rId205" xr:uid="{6E0FAD1E-85C8-7E4D-999F-2443AC337F49}"/>
-    <hyperlink ref="A206" r:id="rId206" xr:uid="{94C5E53C-083C-8245-A3C0-DC78DF88F801}"/>
-    <hyperlink ref="A207" r:id="rId207" xr:uid="{C607D1D1-522F-A740-B5FE-C79E1B520964}"/>
-    <hyperlink ref="A208" r:id="rId208" xr:uid="{73B203FD-ABFE-004D-B61F-5481BBA0AB32}"/>
-    <hyperlink ref="A209" r:id="rId209" xr:uid="{8D2BC35C-0804-014C-8B5D-68D074DF97CE}"/>
-    <hyperlink ref="A210" r:id="rId210" xr:uid="{37880A7A-2513-6E44-BEC8-26F48632CFE2}"/>
-    <hyperlink ref="A211" r:id="rId211" xr:uid="{01CB8167-73D3-024D-97E8-7B9825772262}"/>
-    <hyperlink ref="A212" r:id="rId212" xr:uid="{D44C03AC-C3B4-3E4E-996A-AD53674D61AD}"/>
-    <hyperlink ref="A213" r:id="rId213" xr:uid="{25B5C679-739F-5242-B526-6BEA2ABCC9B4}"/>
-    <hyperlink ref="A214" r:id="rId214" xr:uid="{272862B1-AB15-064B-A4EF-D92DBCFFC594}"/>
-    <hyperlink ref="A215" r:id="rId215" xr:uid="{5E8D8D9E-D52D-354A-A4E9-227F493A2F3C}"/>
-    <hyperlink ref="A216" r:id="rId216" xr:uid="{43CD4AFC-0A4B-604A-9B63-432C8B184388}"/>
-    <hyperlink ref="A217" r:id="rId217" xr:uid="{C797B4FD-256C-7B47-8ABE-51742284D7C1}"/>
-    <hyperlink ref="A218" r:id="rId218" xr:uid="{9D43C380-B61B-0E45-9EFE-22F3D589228F}"/>
-    <hyperlink ref="A219" r:id="rId219" xr:uid="{5BF51224-D2D2-4E4F-94A8-0E264DBAE644}"/>
-    <hyperlink ref="A220" r:id="rId220" xr:uid="{0C5F26D2-9FCE-544D-BFCE-43E9E9B53798}"/>
-    <hyperlink ref="A221" r:id="rId221" xr:uid="{3DFD6606-C5E0-1947-A1B4-45FB0DDB2DEF}"/>
-    <hyperlink ref="A222" r:id="rId222" xr:uid="{008C6F3E-FC65-0C4C-A8E0-73CF59234684}"/>
-    <hyperlink ref="A223" r:id="rId223" xr:uid="{DF0FEFC5-427A-C047-ACD4-6C21318E1E23}"/>
-    <hyperlink ref="A224" r:id="rId224" xr:uid="{92AF8662-902C-804E-9030-0BAB9813C845}"/>
-    <hyperlink ref="A225" r:id="rId225" xr:uid="{71B613A7-0D55-7145-AC5B-02FD3BE2CAB8}"/>
-    <hyperlink ref="A226" r:id="rId226" xr:uid="{2CF44E20-9FFA-4B43-89C9-6E9FA6B19B52}"/>
-    <hyperlink ref="A227" r:id="rId227" xr:uid="{DB17333E-F6FC-FC49-B299-92058B80A305}"/>
-    <hyperlink ref="A228" r:id="rId228" xr:uid="{3CEFC6FF-932F-A24D-BF78-807549577A1C}"/>
-    <hyperlink ref="A229" r:id="rId229" xr:uid="{46BDDC05-1A90-B74E-A977-576480262C92}"/>
-    <hyperlink ref="A230" r:id="rId230" xr:uid="{738AEE97-2EE2-534E-8DDE-4341C066C6B6}"/>
-    <hyperlink ref="A231" r:id="rId231" xr:uid="{E7523842-A33A-DC45-8CCE-4066F5FB1B27}"/>
-    <hyperlink ref="A232" r:id="rId232" xr:uid="{79E590E7-0A9A-5841-9516-CCD47B597BF8}"/>
-    <hyperlink ref="A233" r:id="rId233" xr:uid="{7588C0D6-F57E-DD4E-AC90-724B07456150}"/>
-    <hyperlink ref="A234" r:id="rId234" xr:uid="{DE6D27E1-64D6-D842-AB75-774DE8229957}"/>
-    <hyperlink ref="A235" r:id="rId235" xr:uid="{01AF2C8D-352D-314A-8D6F-3B67A4C8C51E}"/>
-    <hyperlink ref="A236" r:id="rId236" xr:uid="{B117BD27-D7DB-7D45-9E62-17C0022E0C30}"/>
-    <hyperlink ref="A237" r:id="rId237" xr:uid="{7E805266-54F3-8D4B-96E6-DE90B976271C}"/>
-    <hyperlink ref="A238" r:id="rId238" xr:uid="{7FECA922-803E-B541-BD70-C92210259589}"/>
-    <hyperlink ref="A239" r:id="rId239" xr:uid="{A06C925D-130A-2C45-9FFA-E5ED62BCF903}"/>
-    <hyperlink ref="A240" r:id="rId240" xr:uid="{86952E20-34E4-BE4C-9B7E-05AE96D67C49}"/>
-    <hyperlink ref="A241" r:id="rId241" xr:uid="{428714E7-1F49-5E47-A7B4-FBB5FBE5B677}"/>
-    <hyperlink ref="A242" r:id="rId242" xr:uid="{CDCE6BC6-FEA9-E24F-97A1-BA6DAF9F3689}"/>
-    <hyperlink ref="A243" r:id="rId243" xr:uid="{9A51FAA8-CAF9-EB49-B871-9B7288385456}"/>
-    <hyperlink ref="A244" r:id="rId244" xr:uid="{5C9784D1-0EEF-5042-916F-E27F3BB19F64}"/>
-    <hyperlink ref="A245" r:id="rId245" xr:uid="{D4D8E38F-8C88-5A4F-8C1A-65B2122054A8}"/>
-    <hyperlink ref="A246" r:id="rId246" xr:uid="{921F652B-C654-EE43-928D-3E9B698DE534}"/>
-    <hyperlink ref="A247" r:id="rId247" xr:uid="{DE0AAE01-548C-7A4E-8C00-7F53FFB019F1}"/>
-    <hyperlink ref="A248" r:id="rId248" xr:uid="{66321B79-3291-6744-B4F3-AA7875F908CD}"/>
-    <hyperlink ref="A249" r:id="rId249" xr:uid="{C1F12D44-80AA-2B4A-9918-ABD7B564E6D1}"/>
-    <hyperlink ref="A250" r:id="rId250" xr:uid="{CFBA8119-5235-3547-A11B-DE68DC150A56}"/>
-    <hyperlink ref="A251" r:id="rId251" xr:uid="{6586FC0D-D311-8F47-A84E-82044CA7AF00}"/>
-    <hyperlink ref="A252" r:id="rId252" xr:uid="{5168A552-E3CB-AC40-AB67-25F57D51FADC}"/>
-    <hyperlink ref="A253" r:id="rId253" xr:uid="{5EFEAE08-0D33-3540-A0B7-4080163E0257}"/>
-    <hyperlink ref="A254" r:id="rId254" xr:uid="{8B9E93C8-0330-9944-9569-068E818AC275}"/>
-    <hyperlink ref="A255" r:id="rId255" xr:uid="{8FE95D37-BEBC-F645-8547-C28857B0A45C}"/>
-    <hyperlink ref="A256" r:id="rId256" xr:uid="{D89CCFEC-D0A3-8B48-8AD9-B1DBBC58B978}"/>
-    <hyperlink ref="A257" r:id="rId257" xr:uid="{8EFFFD9C-30C7-4048-9576-B9744E0AAA6D}"/>
-    <hyperlink ref="A258" r:id="rId258" xr:uid="{6A1239DA-4F6F-324B-8406-E5968BF79193}"/>
-    <hyperlink ref="A259" r:id="rId259" xr:uid="{1FB0358F-8137-E346-8B37-A88DA58FF893}"/>
-    <hyperlink ref="A260" r:id="rId260" xr:uid="{7393D797-F331-2747-B21F-9C64477B03E8}"/>
-    <hyperlink ref="A261" r:id="rId261" xr:uid="{89241C78-8C33-8A4B-9191-27ABCFD624DD}"/>
-    <hyperlink ref="A262" r:id="rId262" xr:uid="{58611FFD-E629-A44B-8459-DBE392F39DDE}"/>
-    <hyperlink ref="A263" r:id="rId263" xr:uid="{FC27C60A-E408-804E-855C-1CBA151805E0}"/>
-    <hyperlink ref="A264" r:id="rId264" xr:uid="{31CA7AA2-EF5D-DA44-B167-D56CD35E223C}"/>
-    <hyperlink ref="A265" r:id="rId265" xr:uid="{DDC1BD5A-FC66-FB42-B1CB-034865EC2803}"/>
-    <hyperlink ref="A266" r:id="rId266" xr:uid="{8BD644BD-BAF3-7544-860E-00515810E7AE}"/>
-    <hyperlink ref="A267" r:id="rId267" xr:uid="{55FC32CC-5C56-4E43-99E9-7FCFD2E9E866}"/>
-    <hyperlink ref="A268" r:id="rId268" xr:uid="{9F390145-95BE-1D41-8C2C-241EBBE828EF}"/>
-    <hyperlink ref="A269" r:id="rId269" xr:uid="{05530643-B829-EE42-81CA-23F84CE6A2EF}"/>
-    <hyperlink ref="A270" r:id="rId270" xr:uid="{28D44972-71E5-D642-A427-2F69E1E61BB5}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{43CF84D5-0469-E343-9994-8169CA64BA9C}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{C23D1F80-C381-B841-A8A1-2CC5DFD5F3D3}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{2444B9A3-8449-C946-B3B5-E4C6AF7AE7D6}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{64A57281-30DB-6246-BF27-C712C5CA5EBE}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{4A2EB155-A84C-C54B-8674-3C8E49A2EA67}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{4CE353F6-480F-9540-B15F-BDD2783FFF2B}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{CBF3C27E-1826-954D-8E48-9B5BCFA31E08}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{4C5C94DE-32E1-1C41-ADB8-A2FBF71143F9}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{ED77BB1A-9E08-EB45-B147-A10D0651FB6E}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{871748FF-4C47-2943-8C64-4948D2E61E68}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{CD9A6AA8-19BB-0040-BD96-DE5B25952538}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{7CD1970F-CF55-B94F-AA51-D32511853502}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{5B3D19A9-8B6F-CB4C-9AB3-7558BAFE2B25}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{EF1DD75B-A11C-D24A-82AF-63FB93408CEA}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{B1CED060-AA86-A543-AB67-6E553660DCF0}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{FE1CD0E2-C168-CE47-B4A5-17FD60A0E8A6}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{E151DCAA-D54A-A34F-8492-6FD5A4E110EB}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{4BF4BFFB-BFA1-4C42-9CB7-6EF724667CD3}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{B27D089C-15F3-4E40-93C7-43587D260AA1}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{13075B7B-425E-DB41-BD0E-A9AFA888A2C1}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{90A365BA-1B76-D449-9956-A7FF38CA7E97}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{545A4385-6EEE-614E-A094-C51E3469E7F6}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{D4B43F7F-A8FB-F542-8701-59A373109D6E}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{E6F8BE0B-5173-8F46-9977-08C49FC198CC}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{8B965D12-34F6-454C-8DEB-484048172E66}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{B6823E5C-0B1D-0B40-913A-53609E9575FE}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{1DE0650F-86B7-F845-A8EC-50037A436127}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{8883F87B-B7E8-3442-AC0E-78E5E482FEB2}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{A2572AA2-848B-2745-8C3B-5CC205D19641}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{6C6744D9-B8E9-2C4C-8589-196C6BF2D5E5}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{DCBE8BC1-4696-144C-AC99-90FBBB80F45E}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{CEC05240-2382-B54B-9AD7-FE27655139F9}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{A5251266-5D55-2544-94F4-EA3DAD18B30E}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{C0104702-E7D1-7846-869D-6D60E906D907}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{561BE00D-F7D8-FC49-8444-FEBC64764FD9}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{AA02CAE1-75D9-3E42-B30F-A634B26A998D}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{B79A3596-90E1-3348-9D6D-0A2146F5C97F}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{6CB03193-7301-BD46-A8BE-F6F8FF9FD1F2}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{26FF1C0C-88B4-2444-9DE1-BDA93BE0DC21}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{1261B7AD-6EEF-FA45-8A4A-A4F17D2B8421}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{234E8BAE-E68B-474E-9885-368948912457}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{D4945377-E48E-D54B-97EC-C3A4B303EA5A}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{53F054A4-681E-2F4B-B62C-E797DD9742F1}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{5FF0CE08-BEA7-9B47-9CB9-D79E463EE67D}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{9C41982C-30C0-E44F-94C7-41C5F6C667F2}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{45CDA606-3E25-5246-B064-83CB1CE897F9}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{66B8D53F-BA43-C34D-850C-89C9BA6CBF3A}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{E70D5015-68CA-F745-B6A3-718A3AED4C3F}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{143A5153-9C90-4C4A-98D6-377A7C7823E6}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{377A593A-66AE-B147-AD6F-FC2424F6C722}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{DE5F3D95-9B10-4C4F-ACB6-00D167CE8BD3}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{DC857D2D-3097-944D-A1F1-2E9CA1940F2E}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{38CE3C9D-3195-A344-BE56-C80904E459D9}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{1F265E26-E372-F545-9586-95D236A44422}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{02B00F99-7259-9549-966A-DBCA6774A5A1}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{6C996963-BBF1-9D4B-9524-5ECA8AA86ABD}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{C7709FEC-E79F-904F-83BA-B5B2D8BFB797}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{4E99D51F-EB29-6141-B00D-10D0D68D5664}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{6F9C07D2-4213-6D4D-8A4D-EE30DCDDB085}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{02BD1FD6-85EC-304D-A3EF-912223B3D3B9}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{FA0A6533-4D97-7A41-9D6B-6F42FA8B278B}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{A26B9C32-14F4-8947-9103-5150C02831D7}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{AE125B6A-6B49-7C4A-96E9-B6617E97CCC9}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{B7C8C160-062F-CF49-B79C-49AE862E384F}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{864905D7-5DD3-834B-B0D2-8E99D9ACE1CE}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{A4208BFB-EEC0-9D42-B701-5168FA0E70B6}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{A8548243-D6E3-9345-9F1E-60D9BE73D3AF}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{E39BF1B3-D42A-0B44-83A7-C6B99B9432F0}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{86807DD1-A847-4146-8A1F-3553FA25999E}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{23574F31-648E-4344-8386-120463AA41C3}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{B662A1B6-DB71-7543-B0C3-EDAEB5E898EA}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{6F283435-2B29-3E48-BAD7-09C8EFA778C0}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{64E28DAD-D20E-6A4A-B791-C2C5F61C97F7}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{D2192D39-8FE4-294B-9BAA-6354AAF827C1}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{026FD04C-DFFE-7446-BE19-7C692A5E7D45}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{4B6827E9-5133-534F-A378-33B74C97B9E8}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{905A9DFC-542E-3746-88AA-0613D26AEB4A}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{6E0FAD1E-85C8-7E4D-999F-2443AC337F49}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{94C5E53C-083C-8245-A3C0-DC78DF88F801}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{C607D1D1-522F-A740-B5FE-C79E1B520964}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{73B203FD-ABFE-004D-B61F-5481BBA0AB32}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{8D2BC35C-0804-014C-8B5D-68D074DF97CE}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{37880A7A-2513-6E44-BEC8-26F48632CFE2}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{01CB8167-73D3-024D-97E8-7B9825772262}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{D44C03AC-C3B4-3E4E-996A-AD53674D61AD}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{25B5C679-739F-5242-B526-6BEA2ABCC9B4}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{272862B1-AB15-064B-A4EF-D92DBCFFC594}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{5E8D8D9E-D52D-354A-A4E9-227F493A2F3C}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{43CD4AFC-0A4B-604A-9B63-432C8B184388}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{C797B4FD-256C-7B47-8ABE-51742284D7C1}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{9D43C380-B61B-0E45-9EFE-22F3D589228F}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{5BF51224-D2D2-4E4F-94A8-0E264DBAE644}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{0C5F26D2-9FCE-544D-BFCE-43E9E9B53798}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{3DFD6606-C5E0-1947-A1B4-45FB0DDB2DEF}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{008C6F3E-FC65-0C4C-A8E0-73CF59234684}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{DF0FEFC5-427A-C047-ACD4-6C21318E1E23}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{92AF8662-902C-804E-9030-0BAB9813C845}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{71B613A7-0D55-7145-AC5B-02FD3BE2CAB8}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{2CF44E20-9FFA-4B43-89C9-6E9FA6B19B52}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{DB17333E-F6FC-FC49-B299-92058B80A305}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{3CEFC6FF-932F-A24D-BF78-807549577A1C}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{46BDDC05-1A90-B74E-A977-576480262C92}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{738AEE97-2EE2-534E-8DDE-4341C066C6B6}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{E7523842-A33A-DC45-8CCE-4066F5FB1B27}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{79E590E7-0A9A-5841-9516-CCD47B597BF8}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{7588C0D6-F57E-DD4E-AC90-724B07456150}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{DE6D27E1-64D6-D842-AB75-774DE8229957}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{01AF2C8D-352D-314A-8D6F-3B67A4C8C51E}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{B117BD27-D7DB-7D45-9E62-17C0022E0C30}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{7E805266-54F3-8D4B-96E6-DE90B976271C}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{7FECA922-803E-B541-BD70-C92210259589}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{A06C925D-130A-2C45-9FFA-E5ED62BCF903}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{86952E20-34E4-BE4C-9B7E-05AE96D67C49}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{428714E7-1F49-5E47-A7B4-FBB5FBE5B677}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{CDCE6BC6-FEA9-E24F-97A1-BA6DAF9F3689}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{9A51FAA8-CAF9-EB49-B871-9B7288385456}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{5C9784D1-0EEF-5042-916F-E27F3BB19F64}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{D4D8E38F-8C88-5A4F-8C1A-65B2122054A8}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{921F652B-C654-EE43-928D-3E9B698DE534}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{DE0AAE01-548C-7A4E-8C00-7F53FFB019F1}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{66321B79-3291-6744-B4F3-AA7875F908CD}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{C1F12D44-80AA-2B4A-9918-ABD7B564E6D1}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{CFBA8119-5235-3547-A11B-DE68DC150A56}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{6586FC0D-D311-8F47-A84E-82044CA7AF00}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{5168A552-E3CB-AC40-AB67-25F57D51FADC}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{5EFEAE08-0D33-3540-A0B7-4080163E0257}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{8B9E93C8-0330-9944-9569-068E818AC275}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{8FE95D37-BEBC-F645-8547-C28857B0A45C}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{D89CCFEC-D0A3-8B48-8AD9-B1DBBC58B978}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{8EFFFD9C-30C7-4048-9576-B9744E0AAA6D}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{6A1239DA-4F6F-324B-8406-E5968BF79193}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{1FB0358F-8137-E346-8B37-A88DA58FF893}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{7393D797-F331-2747-B21F-9C64477B03E8}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{89241C78-8C33-8A4B-9191-27ABCFD624DD}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{58611FFD-E629-A44B-8459-DBE392F39DDE}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{FC27C60A-E408-804E-855C-1CBA151805E0}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{31CA7AA2-EF5D-DA44-B167-D56CD35E223C}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{DDC1BD5A-FC66-FB42-B1CB-034865EC2803}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{8BD644BD-BAF3-7544-860E-00515810E7AE}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{55FC32CC-5C56-4E43-99E9-7FCFD2E9E866}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{9F390145-95BE-1D41-8C2C-241EBBE828EF}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{05530643-B829-EE42-81CA-23F84CE6A2EF}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{28D44972-71E5-D642-A427-2F69E1E61BB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
